--- a/Лаба.xlsx
+++ b/Лаба.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kseniaparygina/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kseniaparygina/Documents/GitHub/get-dibr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06E9F933-F50D-784D-B3DE-040D00460469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8550F54-5389-0945-91D2-35062099AE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{030AE6C6-F2AA-6347-B9AE-E1DDF040043E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{030AE6C6-F2AA-6347-B9AE-E1DDF040043E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Лист1!$A$1:$A$270</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$A$1:$A$270</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$A$1:$A$270</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$A$1:$A$270</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$A$1:$A$270</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$A$1:$A$270</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,7 +129,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1132,7 +1127,7 @@
   <dimension ref="A1:Y272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,7 +1137,7 @@
         <v>5407</v>
       </c>
       <c r="B1">
-        <f>(A1-$B$271)^2</f>
+        <f t="shared" ref="B1:B64" si="0">(A1-$B$271)^2</f>
         <v>43681</v>
       </c>
     </row>
@@ -1151,7 +1146,7 @@
         <v>5422</v>
       </c>
       <c r="B2">
-        <f>(A2-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>37636</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1196,7 +1191,7 @@
         <v>5429</v>
       </c>
       <c r="B3">
-        <f>(A3-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>34969</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1207,43 +1202,43 @@
         <v>5457.5</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:O3" si="0">$D$6+F2*$G$8</f>
+        <f t="shared" ref="F3:O3" si="1">$D$6+F2*$G$8</f>
         <v>5508</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5558.5</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5609</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5659.5</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5710</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5760.5</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5811</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5861.5</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5912</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5962.5</v>
       </c>
     </row>
@@ -1252,7 +1247,7 @@
         <v>5429</v>
       </c>
       <c r="B4">
-        <f>(A4-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>34969</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1275,7 +1270,7 @@
         <v>5433</v>
       </c>
       <c r="B5">
-        <f>(A5-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>33489</v>
       </c>
       <c r="E5">
@@ -1328,7 +1323,7 @@
         <v>5435</v>
       </c>
       <c r="B6">
-        <f>(A6-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>32761</v>
       </c>
       <c r="D6">
@@ -1340,43 +1335,43 @@
         <v>6.6006600660066007E-4</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:O6" si="1">F5/(270*$G$8)</f>
+        <f t="shared" ref="F6:O6" si="2">F5/(270*$G$8)</f>
         <v>1.6868353502016869E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6402640264026403E-3</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2339567290062336E-3</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.887055372203887E-3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2467913458012467E-3</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6006600660066007E-4</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5342867620095339E-4</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6006600660066007E-4</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.667033370003667E-4</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3340667400073343E-5</v>
       </c>
     </row>
@@ -1385,7 +1380,7 @@
         <v>5435</v>
       </c>
       <c r="B7">
-        <f>(A7-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>32761</v>
       </c>
       <c r="D7">
@@ -1398,7 +1393,7 @@
         <v>5438</v>
       </c>
       <c r="B8">
-        <f>(A8-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>31684</v>
       </c>
       <c r="F8" t="s">
@@ -1414,7 +1409,7 @@
         <v>5450</v>
       </c>
       <c r="B9">
-        <f>(A9-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>27556</v>
       </c>
       <c r="F9" t="s">
@@ -1430,7 +1425,7 @@
         <v>5461</v>
       </c>
       <c r="B10">
-        <f>(A10-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>24025</v>
       </c>
     </row>
@@ -1439,7 +1434,7 @@
         <v>5461</v>
       </c>
       <c r="B11">
-        <f>(A11-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>24025</v>
       </c>
     </row>
@@ -1448,7 +1443,7 @@
         <v>5465</v>
       </c>
       <c r="B12">
-        <f>(A12-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>22801</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1523,7 +1518,7 @@
         <v>5469</v>
       </c>
       <c r="B13">
-        <f>(A13-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>21609</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1534,83 +1529,83 @@
         <v>5432.25</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ref="F13:Y13" si="2">$D$6+F12*$G$9</f>
+        <f t="shared" ref="F13:Y13" si="3">$D$6+F12*$G$9</f>
         <v>5457.5</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5482.75</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5508</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5533.25</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5558.5</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5583.75</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5609</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5634.25</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5659.5</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5684.75</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5710</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5735.25</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5760.5</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5785.75</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5811</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5836.25</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5861.5</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5886.75</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5912</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5937.25</v>
       </c>
     </row>
@@ -1619,7 +1614,7 @@
         <v>5470</v>
       </c>
       <c r="B14">
-        <f>(A14-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>21316</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1652,7 +1647,7 @@
         <v>5471</v>
       </c>
       <c r="B15">
-        <f>(A15-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>21025</v>
       </c>
       <c r="E15">
@@ -1745,7 +1740,7 @@
         <v>5473</v>
       </c>
       <c r="B16">
-        <f>(A16-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>20449</v>
       </c>
       <c r="E16">
@@ -1753,227 +1748,230 @@
         <v>5.8672533920058674E-4</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:Y16" si="3">F15/(270*$G$9)</f>
+        <f t="shared" ref="F16:Y16" si="4">F15/(270*$G$9)</f>
         <v>7.334066740007334E-4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3201320132013201E-3</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0535386872020537E-3</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.346901356802347E-3</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9336266960029336E-3</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1873854052071874E-3</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2805280528052806E-3</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5203520352035203E-3</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6670333700036671E-3</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6134946828016135E-3</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4668133480014668E-3</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6134946828016135E-3</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1734506784011735E-3</v>
       </c>
       <c r="S16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.334066740007334E-4</v>
       </c>
       <c r="T16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1734506784011735E-3</v>
       </c>
       <c r="U16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.334066740007334E-4</v>
       </c>
       <c r="V16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8672533920058674E-4</v>
       </c>
       <c r="W16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4668133480014669E-4</v>
       </c>
       <c r="X16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8672533920058674E-4</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4668133480014669E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5476</v>
       </c>
       <c r="B17">
-        <f>(A17-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>19600</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5478</v>
       </c>
       <c r="B18">
-        <f>(A18-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>19044</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5484</v>
       </c>
       <c r="B19">
-        <f>(A19-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>17424</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5486</v>
       </c>
       <c r="B20">
-        <f>(A20-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5486</v>
       </c>
       <c r="B21">
-        <f>(A21-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5488</v>
       </c>
       <c r="B22">
-        <f>(A22-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5489</v>
       </c>
       <c r="B23">
-        <f>(A23-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16129</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="U23">
+        <v>67766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5489</v>
       </c>
       <c r="B24">
-        <f>(A24-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16129</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5489</v>
       </c>
       <c r="B25">
-        <f>(A25-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16129</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5492</v>
       </c>
       <c r="B26">
-        <f>(A26-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>15376</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5496</v>
       </c>
       <c r="B27">
-        <f>(A27-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>14400</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5501</v>
       </c>
       <c r="B28">
-        <f>(A28-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>13225</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5501</v>
       </c>
       <c r="B29">
-        <f>(A29-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>13225</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5501</v>
       </c>
       <c r="B30">
-        <f>(A30-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>13225</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5505</v>
       </c>
       <c r="B31">
-        <f>(A31-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>12321</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5506</v>
       </c>
       <c r="B32">
-        <f>(A32-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>12100</v>
       </c>
     </row>
@@ -1982,7 +1980,7 @@
         <v>5508</v>
       </c>
       <c r="B33">
-        <f>(A33-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>11664</v>
       </c>
     </row>
@@ -1991,7 +1989,7 @@
         <v>5512</v>
       </c>
       <c r="B34">
-        <f>(A34-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>10816</v>
       </c>
     </row>
@@ -2000,7 +1998,7 @@
         <v>5512</v>
       </c>
       <c r="B35">
-        <f>(A35-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>10816</v>
       </c>
     </row>
@@ -2009,7 +2007,7 @@
         <v>5513</v>
       </c>
       <c r="B36">
-        <f>(A36-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>10609</v>
       </c>
     </row>
@@ -2018,7 +2016,7 @@
         <v>5516</v>
       </c>
       <c r="B37">
-        <f>(A37-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
@@ -2027,7 +2025,7 @@
         <v>5518</v>
       </c>
       <c r="B38">
-        <f>(A38-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9604</v>
       </c>
     </row>
@@ -2036,7 +2034,7 @@
         <v>5519</v>
       </c>
       <c r="B39">
-        <f>(A39-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9409</v>
       </c>
     </row>
@@ -2045,7 +2043,7 @@
         <v>5520</v>
       </c>
       <c r="B40">
-        <f>(A40-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9216</v>
       </c>
     </row>
@@ -2054,7 +2052,7 @@
         <v>5520</v>
       </c>
       <c r="B41">
-        <f>(A41-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9216</v>
       </c>
     </row>
@@ -2063,7 +2061,7 @@
         <v>5520</v>
       </c>
       <c r="B42">
-        <f>(A42-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9216</v>
       </c>
     </row>
@@ -2072,7 +2070,7 @@
         <v>5520</v>
       </c>
       <c r="B43">
-        <f>(A43-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9216</v>
       </c>
     </row>
@@ -2081,7 +2079,7 @@
         <v>5522</v>
       </c>
       <c r="B44">
-        <f>(A44-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>8836</v>
       </c>
     </row>
@@ -2090,7 +2088,7 @@
         <v>5525</v>
       </c>
       <c r="B45">
-        <f>(A45-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>8281</v>
       </c>
     </row>
@@ -2099,7 +2097,7 @@
         <v>5526</v>
       </c>
       <c r="B46">
-        <f>(A46-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>8100</v>
       </c>
     </row>
@@ -2108,7 +2106,7 @@
         <v>5531</v>
       </c>
       <c r="B47">
-        <f>(A47-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>7225</v>
       </c>
     </row>
@@ -2117,7 +2115,7 @@
         <v>5531</v>
       </c>
       <c r="B48">
-        <f>(A48-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>7225</v>
       </c>
     </row>
@@ -2126,7 +2124,7 @@
         <v>5534</v>
       </c>
       <c r="B49">
-        <f>(A49-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>6724</v>
       </c>
     </row>
@@ -2135,7 +2133,7 @@
         <v>5536</v>
       </c>
       <c r="B50">
-        <f>(A50-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>6400</v>
       </c>
     </row>
@@ -2144,7 +2142,7 @@
         <v>5539</v>
       </c>
       <c r="B51">
-        <f>(A51-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5929</v>
       </c>
     </row>
@@ -2153,7 +2151,7 @@
         <v>5540</v>
       </c>
       <c r="B52">
-        <f>(A52-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5776</v>
       </c>
     </row>
@@ -2162,7 +2160,7 @@
         <v>5540</v>
       </c>
       <c r="B53">
-        <f>(A53-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5776</v>
       </c>
     </row>
@@ -2171,7 +2169,7 @@
         <v>5542</v>
       </c>
       <c r="B54">
-        <f>(A54-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5476</v>
       </c>
     </row>
@@ -2180,7 +2178,7 @@
         <v>5543</v>
       </c>
       <c r="B55">
-        <f>(A55-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5329</v>
       </c>
     </row>
@@ -2189,7 +2187,7 @@
         <v>5544</v>
       </c>
       <c r="B56">
-        <f>(A56-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5184</v>
       </c>
     </row>
@@ -2198,7 +2196,7 @@
         <v>5546</v>
       </c>
       <c r="B57">
-        <f>(A57-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
     </row>
@@ -2207,7 +2205,7 @@
         <v>5546</v>
       </c>
       <c r="B58">
-        <f>(A58-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
     </row>
@@ -2216,7 +2214,7 @@
         <v>5548</v>
       </c>
       <c r="B59">
-        <f>(A59-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4624</v>
       </c>
     </row>
@@ -2225,7 +2223,7 @@
         <v>5548</v>
       </c>
       <c r="B60">
-        <f>(A60-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4624</v>
       </c>
     </row>
@@ -2234,7 +2232,7 @@
         <v>5548</v>
       </c>
       <c r="B61">
-        <f>(A61-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4624</v>
       </c>
     </row>
@@ -2243,7 +2241,7 @@
         <v>5549</v>
       </c>
       <c r="B62">
-        <f>(A62-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4489</v>
       </c>
     </row>
@@ -2252,7 +2250,7 @@
         <v>5550</v>
       </c>
       <c r="B63">
-        <f>(A63-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4356</v>
       </c>
     </row>
@@ -2261,7 +2259,7 @@
         <v>5551</v>
       </c>
       <c r="B64">
-        <f>(A64-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4225</v>
       </c>
     </row>
@@ -2270,7 +2268,7 @@
         <v>5553</v>
       </c>
       <c r="B65">
-        <f>(A65-$B$271)^2</f>
+        <f t="shared" ref="B65:B128" si="5">(A65-$B$271)^2</f>
         <v>3969</v>
       </c>
     </row>
@@ -2279,7 +2277,7 @@
         <v>5554</v>
       </c>
       <c r="B66">
-        <f>(A66-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>3844</v>
       </c>
     </row>
@@ -2288,7 +2286,7 @@
         <v>5554</v>
       </c>
       <c r="B67">
-        <f>(A67-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>3844</v>
       </c>
     </row>
@@ -2297,7 +2295,7 @@
         <v>5558</v>
       </c>
       <c r="B68">
-        <f>(A68-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>3364</v>
       </c>
     </row>
@@ -2306,7 +2304,7 @@
         <v>5560</v>
       </c>
       <c r="B69">
-        <f>(A69-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>3136</v>
       </c>
     </row>
@@ -2315,7 +2313,7 @@
         <v>5561</v>
       </c>
       <c r="B70">
-        <f>(A70-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>3025</v>
       </c>
     </row>
@@ -2324,7 +2322,7 @@
         <v>5562</v>
       </c>
       <c r="B71">
-        <f>(A71-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2916</v>
       </c>
     </row>
@@ -2333,7 +2331,7 @@
         <v>5563</v>
       </c>
       <c r="B72">
-        <f>(A72-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2809</v>
       </c>
     </row>
@@ -2342,7 +2340,7 @@
         <v>5563</v>
       </c>
       <c r="B73">
-        <f>(A73-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2809</v>
       </c>
     </row>
@@ -2351,7 +2349,7 @@
         <v>5563</v>
       </c>
       <c r="B74">
-        <f>(A74-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2809</v>
       </c>
     </row>
@@ -2360,7 +2358,7 @@
         <v>5564</v>
       </c>
       <c r="B75">
-        <f>(A75-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2704</v>
       </c>
     </row>
@@ -2369,7 +2367,7 @@
         <v>5565</v>
       </c>
       <c r="B76">
-        <f>(A76-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2601</v>
       </c>
     </row>
@@ -2378,7 +2376,7 @@
         <v>5565</v>
       </c>
       <c r="B77">
-        <f>(A77-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2601</v>
       </c>
     </row>
@@ -2387,7 +2385,7 @@
         <v>5565</v>
       </c>
       <c r="B78">
-        <f>(A78-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2601</v>
       </c>
     </row>
@@ -2396,7 +2394,7 @@
         <v>5566</v>
       </c>
       <c r="B79">
-        <f>(A79-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
     </row>
@@ -2405,7 +2403,7 @@
         <v>5566</v>
       </c>
       <c r="B80">
-        <f>(A80-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
     </row>
@@ -2414,7 +2412,7 @@
         <v>5566</v>
       </c>
       <c r="B81">
-        <f>(A81-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
     </row>
@@ -2423,7 +2421,7 @@
         <v>5567</v>
       </c>
       <c r="B82">
-        <f>(A82-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2401</v>
       </c>
     </row>
@@ -2432,7 +2430,7 @@
         <v>5567</v>
       </c>
       <c r="B83">
-        <f>(A83-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2401</v>
       </c>
     </row>
@@ -2441,7 +2439,7 @@
         <v>5567</v>
       </c>
       <c r="B84">
-        <f>(A84-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2401</v>
       </c>
     </row>
@@ -2450,7 +2448,7 @@
         <v>5568</v>
       </c>
       <c r="B85">
-        <f>(A85-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2304</v>
       </c>
     </row>
@@ -2459,7 +2457,7 @@
         <v>5568</v>
       </c>
       <c r="B86">
-        <f>(A86-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2304</v>
       </c>
     </row>
@@ -2468,7 +2466,7 @@
         <v>5568</v>
       </c>
       <c r="B87">
-        <f>(A87-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2304</v>
       </c>
     </row>
@@ -2477,7 +2475,7 @@
         <v>5570</v>
       </c>
       <c r="B88">
-        <f>(A88-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2116</v>
       </c>
     </row>
@@ -2486,7 +2484,7 @@
         <v>5571</v>
       </c>
       <c r="B89">
-        <f>(A89-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2025</v>
       </c>
     </row>
@@ -2495,7 +2493,7 @@
         <v>5571</v>
       </c>
       <c r="B90">
-        <f>(A90-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2025</v>
       </c>
     </row>
@@ -2504,7 +2502,7 @@
         <v>5571</v>
       </c>
       <c r="B91">
-        <f>(A91-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2025</v>
       </c>
     </row>
@@ -2513,7 +2511,7 @@
         <v>5572</v>
       </c>
       <c r="B92">
-        <f>(A92-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1936</v>
       </c>
     </row>
@@ -2522,7 +2520,7 @@
         <v>5572</v>
       </c>
       <c r="B93">
-        <f>(A93-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1936</v>
       </c>
     </row>
@@ -2531,7 +2529,7 @@
         <v>5572</v>
       </c>
       <c r="B94">
-        <f>(A94-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1936</v>
       </c>
     </row>
@@ -2540,7 +2538,7 @@
         <v>5572</v>
       </c>
       <c r="B95">
-        <f>(A95-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1936</v>
       </c>
     </row>
@@ -2549,7 +2547,7 @@
         <v>5572</v>
       </c>
       <c r="B96">
-        <f>(A96-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1936</v>
       </c>
     </row>
@@ -2558,7 +2556,7 @@
         <v>5573</v>
       </c>
       <c r="B97">
-        <f>(A97-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1849</v>
       </c>
     </row>
@@ -2567,7 +2565,7 @@
         <v>5574</v>
       </c>
       <c r="B98">
-        <f>(A98-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1764</v>
       </c>
     </row>
@@ -2576,7 +2574,7 @@
         <v>5574</v>
       </c>
       <c r="B99">
-        <f>(A99-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1764</v>
       </c>
     </row>
@@ -2585,7 +2583,7 @@
         <v>5575</v>
       </c>
       <c r="B100">
-        <f>(A100-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1681</v>
       </c>
     </row>
@@ -2594,7 +2592,7 @@
         <v>5576</v>
       </c>
       <c r="B101">
-        <f>(A101-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
     </row>
@@ -2603,7 +2601,7 @@
         <v>5576</v>
       </c>
       <c r="B102">
-        <f>(A102-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
     </row>
@@ -2612,7 +2610,7 @@
         <v>5576</v>
       </c>
       <c r="B103">
-        <f>(A103-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
     </row>
@@ -2621,7 +2619,7 @@
         <v>5576</v>
       </c>
       <c r="B104">
-        <f>(A104-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
     </row>
@@ -2630,7 +2628,7 @@
         <v>5578</v>
       </c>
       <c r="B105">
-        <f>(A105-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1444</v>
       </c>
     </row>
@@ -2639,7 +2637,7 @@
         <v>5579</v>
       </c>
       <c r="B106">
-        <f>(A106-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1369</v>
       </c>
     </row>
@@ -2648,7 +2646,7 @@
         <v>5580</v>
       </c>
       <c r="B107">
-        <f>(A107-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1296</v>
       </c>
     </row>
@@ -2657,7 +2655,7 @@
         <v>5580</v>
       </c>
       <c r="B108">
-        <f>(A108-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1296</v>
       </c>
     </row>
@@ -2666,7 +2664,7 @@
         <v>5581</v>
       </c>
       <c r="B109">
-        <f>(A109-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1225</v>
       </c>
     </row>
@@ -2675,7 +2673,7 @@
         <v>5581</v>
       </c>
       <c r="B110">
-        <f>(A110-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1225</v>
       </c>
     </row>
@@ -2684,7 +2682,7 @@
         <v>5581</v>
       </c>
       <c r="B111">
-        <f>(A111-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1225</v>
       </c>
     </row>
@@ -2693,7 +2691,7 @@
         <v>5581</v>
       </c>
       <c r="B112">
-        <f>(A112-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1225</v>
       </c>
     </row>
@@ -2702,7 +2700,7 @@
         <v>5582</v>
       </c>
       <c r="B113">
-        <f>(A113-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1156</v>
       </c>
     </row>
@@ -2711,7 +2709,7 @@
         <v>5582</v>
       </c>
       <c r="B114">
-        <f>(A114-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1156</v>
       </c>
     </row>
@@ -2720,7 +2718,7 @@
         <v>5582</v>
       </c>
       <c r="B115">
-        <f>(A115-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1156</v>
       </c>
     </row>
@@ -2729,7 +2727,7 @@
         <v>5583</v>
       </c>
       <c r="B116">
-        <f>(A116-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1089</v>
       </c>
     </row>
@@ -2738,7 +2736,7 @@
         <v>5583</v>
       </c>
       <c r="B117">
-        <f>(A117-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1089</v>
       </c>
     </row>
@@ -2747,7 +2745,7 @@
         <v>5585</v>
       </c>
       <c r="B118">
-        <f>(A118-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>961</v>
       </c>
     </row>
@@ -2756,7 +2754,7 @@
         <v>5586</v>
       </c>
       <c r="B119">
-        <f>(A119-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
     </row>
@@ -2765,7 +2763,7 @@
         <v>5587</v>
       </c>
       <c r="B120">
-        <f>(A120-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>841</v>
       </c>
     </row>
@@ -2774,7 +2772,7 @@
         <v>5587</v>
       </c>
       <c r="B121">
-        <f>(A121-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>841</v>
       </c>
     </row>
@@ -2783,7 +2781,7 @@
         <v>5588</v>
       </c>
       <c r="B122">
-        <f>(A122-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>784</v>
       </c>
     </row>
@@ -2792,7 +2790,7 @@
         <v>5588</v>
       </c>
       <c r="B123">
-        <f>(A123-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>784</v>
       </c>
     </row>
@@ -2801,7 +2799,7 @@
         <v>5589</v>
       </c>
       <c r="B124">
-        <f>(A124-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>729</v>
       </c>
     </row>
@@ -2810,7 +2808,7 @@
         <v>5590</v>
       </c>
       <c r="B125">
-        <f>(A125-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>676</v>
       </c>
     </row>
@@ -2819,7 +2817,7 @@
         <v>5590</v>
       </c>
       <c r="B126">
-        <f>(A126-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>676</v>
       </c>
     </row>
@@ -2828,7 +2826,7 @@
         <v>5590</v>
       </c>
       <c r="B127">
-        <f>(A127-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>676</v>
       </c>
     </row>
@@ -2837,7 +2835,7 @@
         <v>5590</v>
       </c>
       <c r="B128">
-        <f>(A128-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>676</v>
       </c>
     </row>
@@ -2846,7 +2844,7 @@
         <v>5591</v>
       </c>
       <c r="B129">
-        <f>(A129-$B$271)^2</f>
+        <f t="shared" ref="B129:B192" si="6">(A129-$B$271)^2</f>
         <v>625</v>
       </c>
     </row>
@@ -2855,7 +2853,7 @@
         <v>5592</v>
       </c>
       <c r="B130">
-        <f>(A130-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>576</v>
       </c>
     </row>
@@ -2864,7 +2862,7 @@
         <v>5592</v>
       </c>
       <c r="B131">
-        <f>(A131-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>576</v>
       </c>
     </row>
@@ -2873,7 +2871,7 @@
         <v>5593</v>
       </c>
       <c r="B132">
-        <f>(A132-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>529</v>
       </c>
     </row>
@@ -2882,7 +2880,7 @@
         <v>5593</v>
       </c>
       <c r="B133">
-        <f>(A133-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>529</v>
       </c>
     </row>
@@ -2891,7 +2889,7 @@
         <v>5593</v>
       </c>
       <c r="B134">
-        <f>(A134-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>529</v>
       </c>
     </row>
@@ -2900,7 +2898,7 @@
         <v>5595</v>
       </c>
       <c r="B135">
-        <f>(A135-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
     </row>
@@ -2909,7 +2907,7 @@
         <v>5595</v>
       </c>
       <c r="B136">
-        <f>(A136-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
     </row>
@@ -2918,7 +2916,7 @@
         <v>5596</v>
       </c>
       <c r="B137">
-        <f>(A137-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -2927,7 +2925,7 @@
         <v>5598</v>
       </c>
       <c r="B138">
-        <f>(A138-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
     </row>
@@ -2936,7 +2934,7 @@
         <v>5598</v>
       </c>
       <c r="B139">
-        <f>(A139-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
     </row>
@@ -2945,7 +2943,7 @@
         <v>5599</v>
       </c>
       <c r="B140">
-        <f>(A140-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
     </row>
@@ -2954,7 +2952,7 @@
         <v>5599</v>
       </c>
       <c r="B141">
-        <f>(A141-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
     </row>
@@ -2963,7 +2961,7 @@
         <v>5599</v>
       </c>
       <c r="B142">
-        <f>(A142-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
     </row>
@@ -2972,7 +2970,7 @@
         <v>5600</v>
       </c>
       <c r="B143">
-        <f>(A143-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
     </row>
@@ -2981,7 +2979,7 @@
         <v>5601</v>
       </c>
       <c r="B144">
-        <f>(A144-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
     </row>
@@ -2990,7 +2988,7 @@
         <v>5602</v>
       </c>
       <c r="B145">
-        <f>(A145-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
     </row>
@@ -2999,7 +2997,7 @@
         <v>5602</v>
       </c>
       <c r="B146">
-        <f>(A146-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
     </row>
@@ -3008,7 +3006,7 @@
         <v>5603</v>
       </c>
       <c r="B147">
-        <f>(A147-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
     </row>
@@ -3017,7 +3015,7 @@
         <v>5603</v>
       </c>
       <c r="B148">
-        <f>(A148-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
     </row>
@@ -3026,7 +3024,7 @@
         <v>5604</v>
       </c>
       <c r="B149">
-        <f>(A149-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
     </row>
@@ -3035,7 +3033,7 @@
         <v>5605</v>
       </c>
       <c r="B150">
-        <f>(A150-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
@@ -3044,7 +3042,7 @@
         <v>5606</v>
       </c>
       <c r="B151">
-        <f>(A151-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3053,7 +3051,7 @@
         <v>5607</v>
       </c>
       <c r="B152">
-        <f>(A152-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
     </row>
@@ -3062,7 +3060,7 @@
         <v>5607</v>
       </c>
       <c r="B153">
-        <f>(A153-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
     </row>
@@ -3071,7 +3069,7 @@
         <v>5610</v>
       </c>
       <c r="B154">
-        <f>(A154-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
@@ -3080,7 +3078,7 @@
         <v>5610</v>
       </c>
       <c r="B155">
-        <f>(A155-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
@@ -3089,7 +3087,7 @@
         <v>5613</v>
       </c>
       <c r="B156">
-        <f>(A156-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -3098,7 +3096,7 @@
         <v>5614</v>
       </c>
       <c r="B157">
-        <f>(A157-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3107,7 +3105,7 @@
         <v>5617</v>
       </c>
       <c r="B158">
-        <f>(A158-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3116,7 +3114,7 @@
         <v>5617</v>
       </c>
       <c r="B159">
-        <f>(A159-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3125,7 +3123,7 @@
         <v>5619</v>
       </c>
       <c r="B160">
-        <f>(A160-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -3134,7 +3132,7 @@
         <v>5619</v>
       </c>
       <c r="B161">
-        <f>(A161-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -3143,7 +3141,7 @@
         <v>5619</v>
       </c>
       <c r="B162">
-        <f>(A162-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -3152,7 +3150,7 @@
         <v>5621</v>
       </c>
       <c r="B163">
-        <f>(A163-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
@@ -3161,7 +3159,7 @@
         <v>5622</v>
       </c>
       <c r="B164">
-        <f>(A164-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
@@ -3170,7 +3168,7 @@
         <v>5623</v>
       </c>
       <c r="B165">
-        <f>(A165-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
@@ -3179,7 +3177,7 @@
         <v>5624</v>
       </c>
       <c r="B166">
-        <f>(A166-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
     </row>
@@ -3188,7 +3186,7 @@
         <v>5624</v>
       </c>
       <c r="B167">
-        <f>(A167-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
     </row>
@@ -3197,7 +3195,7 @@
         <v>5625</v>
       </c>
       <c r="B168">
-        <f>(A168-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
     </row>
@@ -3206,7 +3204,7 @@
         <v>5626</v>
       </c>
       <c r="B169">
-        <f>(A169-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3215,7 +3213,7 @@
         <v>5627</v>
       </c>
       <c r="B170">
-        <f>(A170-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
@@ -3224,7 +3222,7 @@
         <v>5627</v>
       </c>
       <c r="B171">
-        <f>(A171-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
@@ -3233,7 +3231,7 @@
         <v>5627</v>
       </c>
       <c r="B172">
-        <f>(A172-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
@@ -3242,7 +3240,7 @@
         <v>5627</v>
       </c>
       <c r="B173">
-        <f>(A173-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
@@ -3251,7 +3249,7 @@
         <v>5628</v>
       </c>
       <c r="B174">
-        <f>(A174-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
     </row>
@@ -3260,7 +3258,7 @@
         <v>5629</v>
       </c>
       <c r="B175">
-        <f>(A175-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
     </row>
@@ -3269,7 +3267,7 @@
         <v>5633</v>
       </c>
       <c r="B176">
-        <f>(A176-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
     </row>
@@ -3278,7 +3276,7 @@
         <v>5634</v>
       </c>
       <c r="B177">
-        <f>(A177-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
     </row>
@@ -3287,7 +3285,7 @@
         <v>5635</v>
       </c>
       <c r="B178">
-        <f>(A178-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>361</v>
       </c>
     </row>
@@ -3296,7 +3294,7 @@
         <v>5636</v>
       </c>
       <c r="B179">
-        <f>(A179-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -3305,7 +3303,7 @@
         <v>5638</v>
       </c>
       <c r="B180">
-        <f>(A180-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>484</v>
       </c>
     </row>
@@ -3314,7 +3312,7 @@
         <v>5639</v>
       </c>
       <c r="B181">
-        <f>(A181-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>529</v>
       </c>
     </row>
@@ -3323,7 +3321,7 @@
         <v>5640</v>
       </c>
       <c r="B182">
-        <f>(A182-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>576</v>
       </c>
     </row>
@@ -3332,7 +3330,7 @@
         <v>5640</v>
       </c>
       <c r="B183">
-        <f>(A183-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>576</v>
       </c>
     </row>
@@ -3341,7 +3339,7 @@
         <v>5640</v>
       </c>
       <c r="B184">
-        <f>(A184-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>576</v>
       </c>
     </row>
@@ -3350,7 +3348,7 @@
         <v>5641</v>
       </c>
       <c r="B185">
-        <f>(A185-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>625</v>
       </c>
     </row>
@@ -3359,7 +3357,7 @@
         <v>5641</v>
       </c>
       <c r="B186">
-        <f>(A186-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>625</v>
       </c>
     </row>
@@ -3368,7 +3366,7 @@
         <v>5641</v>
       </c>
       <c r="B187">
-        <f>(A187-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>625</v>
       </c>
     </row>
@@ -3377,7 +3375,7 @@
         <v>5643</v>
       </c>
       <c r="B188">
-        <f>(A188-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>729</v>
       </c>
     </row>
@@ -3386,7 +3384,7 @@
         <v>5644</v>
       </c>
       <c r="B189">
-        <f>(A189-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>784</v>
       </c>
     </row>
@@ -3395,7 +3393,7 @@
         <v>5646</v>
       </c>
       <c r="B190">
-        <f>(A190-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
     </row>
@@ -3404,7 +3402,7 @@
         <v>5647</v>
       </c>
       <c r="B191">
-        <f>(A191-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>961</v>
       </c>
     </row>
@@ -3413,7 +3411,7 @@
         <v>5647</v>
       </c>
       <c r="B192">
-        <f>(A192-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>961</v>
       </c>
     </row>
@@ -3422,7 +3420,7 @@
         <v>5648</v>
       </c>
       <c r="B193">
-        <f>(A193-$B$271)^2</f>
+        <f t="shared" ref="B193:B256" si="7">(A193-$B$271)^2</f>
         <v>1024</v>
       </c>
     </row>
@@ -3431,7 +3429,7 @@
         <v>5648</v>
       </c>
       <c r="B194">
-        <f>(A194-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
     </row>
@@ -3440,7 +3438,7 @@
         <v>5652</v>
       </c>
       <c r="B195">
-        <f>(A195-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1296</v>
       </c>
     </row>
@@ -3449,7 +3447,7 @@
         <v>5653</v>
       </c>
       <c r="B196">
-        <f>(A196-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1369</v>
       </c>
     </row>
@@ -3458,7 +3456,7 @@
         <v>5653</v>
       </c>
       <c r="B197">
-        <f>(A197-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1369</v>
       </c>
     </row>
@@ -3467,7 +3465,7 @@
         <v>5654</v>
       </c>
       <c r="B198">
-        <f>(A198-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1444</v>
       </c>
     </row>
@@ -3476,7 +3474,7 @@
         <v>5654</v>
       </c>
       <c r="B199">
-        <f>(A199-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1444</v>
       </c>
     </row>
@@ -3485,7 +3483,7 @@
         <v>5655</v>
       </c>
       <c r="B200">
-        <f>(A200-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1521</v>
       </c>
     </row>
@@ -3494,7 +3492,7 @@
         <v>5656</v>
       </c>
       <c r="B201">
-        <f>(A201-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1600</v>
       </c>
     </row>
@@ -3503,7 +3501,7 @@
         <v>5657</v>
       </c>
       <c r="B202">
-        <f>(A202-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1681</v>
       </c>
     </row>
@@ -3512,7 +3510,7 @@
         <v>5661</v>
       </c>
       <c r="B203">
-        <f>(A203-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>2025</v>
       </c>
     </row>
@@ -3521,7 +3519,7 @@
         <v>5663</v>
       </c>
       <c r="B204">
-        <f>(A204-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>2209</v>
       </c>
     </row>
@@ -3530,7 +3528,7 @@
         <v>5664</v>
       </c>
       <c r="B205">
-        <f>(A205-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>2304</v>
       </c>
     </row>
@@ -3539,7 +3537,7 @@
         <v>5668</v>
       </c>
       <c r="B206">
-        <f>(A206-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>2704</v>
       </c>
     </row>
@@ -3548,7 +3546,7 @@
         <v>5670</v>
       </c>
       <c r="B207">
-        <f>(A207-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>2916</v>
       </c>
     </row>
@@ -3557,7 +3555,7 @@
         <v>5671</v>
       </c>
       <c r="B208">
-        <f>(A208-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>3025</v>
       </c>
     </row>
@@ -3566,7 +3564,7 @@
         <v>5674</v>
       </c>
       <c r="B209">
-        <f>(A209-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>3364</v>
       </c>
     </row>
@@ -3575,7 +3573,7 @@
         <v>5676</v>
       </c>
       <c r="B210">
-        <f>(A210-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>3600</v>
       </c>
     </row>
@@ -3584,7 +3582,7 @@
         <v>5676</v>
       </c>
       <c r="B211">
-        <f>(A211-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>3600</v>
       </c>
     </row>
@@ -3593,7 +3591,7 @@
         <v>5682</v>
       </c>
       <c r="B212">
-        <f>(A212-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>4356</v>
       </c>
     </row>
@@ -3602,7 +3600,7 @@
         <v>5683</v>
       </c>
       <c r="B213">
-        <f>(A213-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>4489</v>
       </c>
     </row>
@@ -3611,7 +3609,7 @@
         <v>5687</v>
       </c>
       <c r="B214">
-        <f>(A214-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>5041</v>
       </c>
     </row>
@@ -3620,7 +3618,7 @@
         <v>5689</v>
       </c>
       <c r="B215">
-        <f>(A215-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>5329</v>
       </c>
     </row>
@@ -3629,7 +3627,7 @@
         <v>5691</v>
       </c>
       <c r="B216">
-        <f>(A216-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>5625</v>
       </c>
     </row>
@@ -3638,7 +3636,7 @@
         <v>5692</v>
       </c>
       <c r="B217">
-        <f>(A217-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>5776</v>
       </c>
     </row>
@@ -3647,7 +3645,7 @@
         <v>5693</v>
       </c>
       <c r="B218">
-        <f>(A218-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>5929</v>
       </c>
     </row>
@@ -3656,7 +3654,7 @@
         <v>5695</v>
       </c>
       <c r="B219">
-        <f>(A219-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>6241</v>
       </c>
     </row>
@@ -3665,7 +3663,7 @@
         <v>5695</v>
       </c>
       <c r="B220">
-        <f>(A220-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>6241</v>
       </c>
     </row>
@@ -3674,7 +3672,7 @@
         <v>5699</v>
       </c>
       <c r="B221">
-        <f>(A221-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>6889</v>
       </c>
     </row>
@@ -3683,7 +3681,7 @@
         <v>5700</v>
       </c>
       <c r="B222">
-        <f>(A222-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>7056</v>
       </c>
     </row>
@@ -3692,7 +3690,7 @@
         <v>5702</v>
       </c>
       <c r="B223">
-        <f>(A223-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>7396</v>
       </c>
     </row>
@@ -3701,7 +3699,7 @@
         <v>5715</v>
       </c>
       <c r="B224">
-        <f>(A224-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>9801</v>
       </c>
     </row>
@@ -3710,7 +3708,7 @@
         <v>5716</v>
       </c>
       <c r="B225">
-        <f>(A225-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
     </row>
@@ -3719,7 +3717,7 @@
         <v>5716</v>
       </c>
       <c r="B226">
-        <f>(A226-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
     </row>
@@ -3728,7 +3726,7 @@
         <v>5718</v>
       </c>
       <c r="B227">
-        <f>(A227-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>10404</v>
       </c>
     </row>
@@ -3737,7 +3735,7 @@
         <v>5719</v>
       </c>
       <c r="B228">
-        <f>(A228-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>10609</v>
       </c>
     </row>
@@ -3746,7 +3744,7 @@
         <v>5725</v>
       </c>
       <c r="B229">
-        <f>(A229-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>11881</v>
       </c>
     </row>
@@ -3755,7 +3753,7 @@
         <v>5725</v>
       </c>
       <c r="B230">
-        <f>(A230-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>11881</v>
       </c>
     </row>
@@ -3764,7 +3762,7 @@
         <v>5729</v>
       </c>
       <c r="B231">
-        <f>(A231-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>12769</v>
       </c>
     </row>
@@ -3773,7 +3771,7 @@
         <v>5731</v>
       </c>
       <c r="B232">
-        <f>(A232-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>13225</v>
       </c>
     </row>
@@ -3782,7 +3780,7 @@
         <v>5732</v>
       </c>
       <c r="B233">
-        <f>(A233-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>13456</v>
       </c>
     </row>
@@ -3791,7 +3789,7 @@
         <v>5735</v>
       </c>
       <c r="B234">
-        <f>(A234-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>14161</v>
       </c>
     </row>
@@ -3800,7 +3798,7 @@
         <v>5738</v>
       </c>
       <c r="B235">
-        <f>(A235-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>14884</v>
       </c>
     </row>
@@ -3809,7 +3807,7 @@
         <v>5739</v>
       </c>
       <c r="B236">
-        <f>(A236-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>15129</v>
       </c>
     </row>
@@ -3818,7 +3816,7 @@
         <v>5740</v>
       </c>
       <c r="B237">
-        <f>(A237-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>15376</v>
       </c>
     </row>
@@ -3827,7 +3825,7 @@
         <v>5741</v>
       </c>
       <c r="B238">
-        <f>(A238-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>15625</v>
       </c>
     </row>
@@ -3836,7 +3834,7 @@
         <v>5743</v>
       </c>
       <c r="B239">
-        <f>(A239-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>16129</v>
       </c>
     </row>
@@ -3845,7 +3843,7 @@
         <v>5748</v>
       </c>
       <c r="B240">
-        <f>(A240-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>17424</v>
       </c>
     </row>
@@ -3854,7 +3852,7 @@
         <v>5750</v>
       </c>
       <c r="B241">
-        <f>(A241-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>17956</v>
       </c>
     </row>
@@ -3863,7 +3861,7 @@
         <v>5758</v>
       </c>
       <c r="B242">
-        <f>(A242-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>20164</v>
       </c>
     </row>
@@ -3872,7 +3870,7 @@
         <v>5761</v>
       </c>
       <c r="B243">
-        <f>(A243-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>21025</v>
       </c>
     </row>
@@ -3881,7 +3879,7 @@
         <v>5762</v>
       </c>
       <c r="B244">
-        <f>(A244-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>21316</v>
       </c>
     </row>
@@ -3890,7 +3888,7 @@
         <v>5764</v>
       </c>
       <c r="B245">
-        <f>(A245-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>21904</v>
       </c>
     </row>
@@ -3899,7 +3897,7 @@
         <v>5778</v>
       </c>
       <c r="B246">
-        <f>(A246-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>26244</v>
       </c>
     </row>
@@ -3908,7 +3906,7 @@
         <v>5785</v>
       </c>
       <c r="B247">
-        <f>(A247-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>28561</v>
       </c>
     </row>
@@ -3917,7 +3915,7 @@
         <v>5789</v>
       </c>
       <c r="B248">
-        <f>(A248-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>29929</v>
       </c>
     </row>
@@ -3926,7 +3924,7 @@
         <v>5796</v>
       </c>
       <c r="B249">
-        <f>(A249-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>32400</v>
       </c>
     </row>
@@ -3935,7 +3933,7 @@
         <v>5801</v>
       </c>
       <c r="B250">
-        <f>(A250-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>34225</v>
       </c>
     </row>
@@ -3944,7 +3942,7 @@
         <v>5803</v>
       </c>
       <c r="B251">
-        <f>(A251-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>34969</v>
       </c>
     </row>
@@ -3953,7 +3951,7 @@
         <v>5804</v>
       </c>
       <c r="B252">
-        <f>(A252-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>35344</v>
       </c>
     </row>
@@ -3962,7 +3960,7 @@
         <v>5804</v>
       </c>
       <c r="B253">
-        <f>(A253-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>35344</v>
       </c>
     </row>
@@ -3971,7 +3969,7 @@
         <v>5805</v>
       </c>
       <c r="B254">
-        <f>(A254-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>35721</v>
       </c>
     </row>
@@ -3980,7 +3978,7 @@
         <v>5810</v>
       </c>
       <c r="B255">
-        <f>(A255-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>37636</v>
       </c>
     </row>
@@ -3989,7 +3987,7 @@
         <v>5816</v>
       </c>
       <c r="B256">
-        <f>(A256-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>40000</v>
       </c>
     </row>
@@ -3998,7 +3996,7 @@
         <v>5820</v>
       </c>
       <c r="B257">
-        <f>(A257-$B$271)^2</f>
+        <f t="shared" ref="B257:B320" si="8">(A257-$B$271)^2</f>
         <v>41616</v>
       </c>
     </row>
@@ -4007,7 +4005,7 @@
         <v>5821</v>
       </c>
       <c r="B258">
-        <f>(A258-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>42025</v>
       </c>
     </row>
@@ -4016,7 +4014,7 @@
         <v>5824</v>
       </c>
       <c r="B259">
-        <f>(A259-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>43264</v>
       </c>
     </row>
@@ -4025,7 +4023,7 @@
         <v>5829</v>
       </c>
       <c r="B260">
-        <f>(A260-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>45369</v>
       </c>
     </row>
@@ -4034,7 +4032,7 @@
         <v>5843</v>
       </c>
       <c r="B261">
-        <f>(A261-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>51529</v>
       </c>
     </row>
@@ -4043,7 +4041,7 @@
         <v>5849</v>
       </c>
       <c r="B262">
-        <f>(A262-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>54289</v>
       </c>
     </row>
@@ -4052,7 +4050,7 @@
         <v>5854</v>
       </c>
       <c r="B263">
-        <f>(A263-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>56644</v>
       </c>
     </row>
@@ -4061,7 +4059,7 @@
         <v>5860</v>
       </c>
       <c r="B264">
-        <f>(A264-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>59536</v>
       </c>
     </row>
@@ -4070,7 +4068,7 @@
         <v>5874</v>
       </c>
       <c r="B265">
-        <f>(A265-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>66564</v>
       </c>
     </row>
@@ -4079,7 +4077,7 @@
         <v>5887</v>
       </c>
       <c r="B266">
-        <f>(A266-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>73441</v>
       </c>
     </row>
@@ -4088,7 +4086,7 @@
         <v>5888</v>
       </c>
       <c r="B267">
-        <f>(A267-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>73984</v>
       </c>
     </row>
@@ -4097,7 +4095,7 @@
         <v>5894</v>
       </c>
       <c r="B268">
-        <f>(A268-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>77284</v>
       </c>
     </row>
@@ -4106,7 +4104,7 @@
         <v>5901</v>
       </c>
       <c r="B269">
-        <f>(A269-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>81225</v>
       </c>
     </row>
@@ -4115,7 +4113,7 @@
         <v>5912</v>
       </c>
       <c r="B270">
-        <f>(A270-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>87616</v>
       </c>
     </row>

--- a/Лаба.xlsx
+++ b/Лаба.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kseniaparygina/Documents/GitHub/get-dibr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kseniaparygina/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8550F54-5389-0945-91D2-35062099AE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06E9F933-F50D-784D-B3DE-040D00460469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{030AE6C6-F2AA-6347-B9AE-E1DDF040043E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{030AE6C6-F2AA-6347-B9AE-E1DDF040043E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Лист1!$A$1:$A$270</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$A$1:$A$270</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$A$1:$A$270</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$A$1:$A$270</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$A$1:$A$270</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$A$1:$A$270</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -129,7 +134,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1127,7 +1132,7 @@
   <dimension ref="A1:Y272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1137,7 +1142,7 @@
         <v>5407</v>
       </c>
       <c r="B1">
-        <f t="shared" ref="B1:B64" si="0">(A1-$B$271)^2</f>
+        <f>(A1-$B$271)^2</f>
         <v>43681</v>
       </c>
     </row>
@@ -1146,7 +1151,7 @@
         <v>5422</v>
       </c>
       <c r="B2">
-        <f t="shared" si="0"/>
+        <f>(A2-$B$271)^2</f>
         <v>37636</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1191,7 +1196,7 @@
         <v>5429</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f>(A3-$B$271)^2</f>
         <v>34969</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1202,43 +1207,43 @@
         <v>5457.5</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:O3" si="1">$D$6+F2*$G$8</f>
+        <f t="shared" ref="F3:O3" si="0">$D$6+F2*$G$8</f>
         <v>5508</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5558.5</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5609</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5659.5</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5710</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5760.5</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5811</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5861.5</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5912</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5962.5</v>
       </c>
     </row>
@@ -1247,7 +1252,7 @@
         <v>5429</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>(A4-$B$271)^2</f>
         <v>34969</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1270,7 +1275,7 @@
         <v>5433</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f>(A5-$B$271)^2</f>
         <v>33489</v>
       </c>
       <c r="E5">
@@ -1323,7 +1328,7 @@
         <v>5435</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>(A6-$B$271)^2</f>
         <v>32761</v>
       </c>
       <c r="D6">
@@ -1335,43 +1340,43 @@
         <v>6.6006600660066007E-4</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:O6" si="2">F5/(270*$G$8)</f>
+        <f t="shared" ref="F6:O6" si="1">F5/(270*$G$8)</f>
         <v>1.6868353502016869E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.6402640264026403E-3</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.2339567290062336E-3</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.887055372203887E-3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2467913458012467E-3</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.6006600660066007E-4</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.5342867620095339E-4</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.6006600660066007E-4</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.667033370003667E-4</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.3340667400073343E-5</v>
       </c>
     </row>
@@ -1380,7 +1385,7 @@
         <v>5435</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f>(A7-$B$271)^2</f>
         <v>32761</v>
       </c>
       <c r="D7">
@@ -1393,7 +1398,7 @@
         <v>5438</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f>(A8-$B$271)^2</f>
         <v>31684</v>
       </c>
       <c r="F8" t="s">
@@ -1409,7 +1414,7 @@
         <v>5450</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f>(A9-$B$271)^2</f>
         <v>27556</v>
       </c>
       <c r="F9" t="s">
@@ -1425,7 +1430,7 @@
         <v>5461</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f>(A10-$B$271)^2</f>
         <v>24025</v>
       </c>
     </row>
@@ -1434,7 +1439,7 @@
         <v>5461</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f>(A11-$B$271)^2</f>
         <v>24025</v>
       </c>
     </row>
@@ -1443,7 +1448,7 @@
         <v>5465</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f>(A12-$B$271)^2</f>
         <v>22801</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1518,7 +1523,7 @@
         <v>5469</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f>(A13-$B$271)^2</f>
         <v>21609</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1529,83 +1534,83 @@
         <v>5432.25</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ref="F13:Y13" si="3">$D$6+F12*$G$9</f>
+        <f t="shared" ref="F13:Y13" si="2">$D$6+F12*$G$9</f>
         <v>5457.5</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5482.75</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5508</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5533.25</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5558.5</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5583.75</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5609</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5634.25</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5659.5</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5684.75</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5710</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5735.25</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5760.5</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5785.75</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5811</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5836.25</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5861.5</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5886.75</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5912</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5937.25</v>
       </c>
     </row>
@@ -1614,7 +1619,7 @@
         <v>5470</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f>(A14-$B$271)^2</f>
         <v>21316</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1647,7 +1652,7 @@
         <v>5471</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f>(A15-$B$271)^2</f>
         <v>21025</v>
       </c>
       <c r="E15">
@@ -1740,7 +1745,7 @@
         <v>5473</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f>(A16-$B$271)^2</f>
         <v>20449</v>
       </c>
       <c r="E16">
@@ -1748,230 +1753,227 @@
         <v>5.8672533920058674E-4</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:Y16" si="4">F15/(270*$G$9)</f>
+        <f t="shared" ref="F16:Y16" si="3">F15/(270*$G$9)</f>
         <v>7.334066740007334E-4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.3201320132013201E-3</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.0535386872020537E-3</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.346901356802347E-3</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.9336266960029336E-3</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.1873854052071874E-3</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.2805280528052806E-3</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5203520352035203E-3</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.6670333700036671E-3</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6134946828016135E-3</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4668133480014668E-3</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6134946828016135E-3</v>
       </c>
       <c r="R16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.1734506784011735E-3</v>
       </c>
       <c r="S16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.334066740007334E-4</v>
       </c>
       <c r="T16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.1734506784011735E-3</v>
       </c>
       <c r="U16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.334066740007334E-4</v>
       </c>
       <c r="V16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.8672533920058674E-4</v>
       </c>
       <c r="W16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4668133480014669E-4</v>
       </c>
       <c r="X16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.8672533920058674E-4</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4668133480014669E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5476</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f>(A17-$B$271)^2</f>
         <v>19600</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5478</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f>(A18-$B$271)^2</f>
         <v>19044</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5484</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>(A19-$B$271)^2</f>
         <v>17424</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5486</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>(A20-$B$271)^2</f>
         <v>16900</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5486</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>(A21-$B$271)^2</f>
         <v>16900</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5488</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f>(A22-$B$271)^2</f>
         <v>16384</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5489</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f>(A23-$B$271)^2</f>
         <v>16129</v>
       </c>
-      <c r="U23">
-        <v>67766</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5489</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f>(A24-$B$271)^2</f>
         <v>16129</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5489</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f>(A25-$B$271)^2</f>
         <v>16129</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5492</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f>(A26-$B$271)^2</f>
         <v>15376</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5496</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f>(A27-$B$271)^2</f>
         <v>14400</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5501</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f>(A28-$B$271)^2</f>
         <v>13225</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5501</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f>(A29-$B$271)^2</f>
         <v>13225</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5501</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f>(A30-$B$271)^2</f>
         <v>13225</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5505</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f>(A31-$B$271)^2</f>
         <v>12321</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5506</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f>(A32-$B$271)^2</f>
         <v>12100</v>
       </c>
     </row>
@@ -1980,7 +1982,7 @@
         <v>5508</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f>(A33-$B$271)^2</f>
         <v>11664</v>
       </c>
     </row>
@@ -1989,7 +1991,7 @@
         <v>5512</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f>(A34-$B$271)^2</f>
         <v>10816</v>
       </c>
     </row>
@@ -1998,7 +2000,7 @@
         <v>5512</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f>(A35-$B$271)^2</f>
         <v>10816</v>
       </c>
     </row>
@@ -2007,7 +2009,7 @@
         <v>5513</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f>(A36-$B$271)^2</f>
         <v>10609</v>
       </c>
     </row>
@@ -2016,7 +2018,7 @@
         <v>5516</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f>(A37-$B$271)^2</f>
         <v>10000</v>
       </c>
     </row>
@@ -2025,7 +2027,7 @@
         <v>5518</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f>(A38-$B$271)^2</f>
         <v>9604</v>
       </c>
     </row>
@@ -2034,7 +2036,7 @@
         <v>5519</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f>(A39-$B$271)^2</f>
         <v>9409</v>
       </c>
     </row>
@@ -2043,7 +2045,7 @@
         <v>5520</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f>(A40-$B$271)^2</f>
         <v>9216</v>
       </c>
     </row>
@@ -2052,7 +2054,7 @@
         <v>5520</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f>(A41-$B$271)^2</f>
         <v>9216</v>
       </c>
     </row>
@@ -2061,7 +2063,7 @@
         <v>5520</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f>(A42-$B$271)^2</f>
         <v>9216</v>
       </c>
     </row>
@@ -2070,7 +2072,7 @@
         <v>5520</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f>(A43-$B$271)^2</f>
         <v>9216</v>
       </c>
     </row>
@@ -2079,7 +2081,7 @@
         <v>5522</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f>(A44-$B$271)^2</f>
         <v>8836</v>
       </c>
     </row>
@@ -2088,7 +2090,7 @@
         <v>5525</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f>(A45-$B$271)^2</f>
         <v>8281</v>
       </c>
     </row>
@@ -2097,7 +2099,7 @@
         <v>5526</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f>(A46-$B$271)^2</f>
         <v>8100</v>
       </c>
     </row>
@@ -2106,7 +2108,7 @@
         <v>5531</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f>(A47-$B$271)^2</f>
         <v>7225</v>
       </c>
     </row>
@@ -2115,7 +2117,7 @@
         <v>5531</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f>(A48-$B$271)^2</f>
         <v>7225</v>
       </c>
     </row>
@@ -2124,7 +2126,7 @@
         <v>5534</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f>(A49-$B$271)^2</f>
         <v>6724</v>
       </c>
     </row>
@@ -2133,7 +2135,7 @@
         <v>5536</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f>(A50-$B$271)^2</f>
         <v>6400</v>
       </c>
     </row>
@@ -2142,7 +2144,7 @@
         <v>5539</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f>(A51-$B$271)^2</f>
         <v>5929</v>
       </c>
     </row>
@@ -2151,7 +2153,7 @@
         <v>5540</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f>(A52-$B$271)^2</f>
         <v>5776</v>
       </c>
     </row>
@@ -2160,7 +2162,7 @@
         <v>5540</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f>(A53-$B$271)^2</f>
         <v>5776</v>
       </c>
     </row>
@@ -2169,7 +2171,7 @@
         <v>5542</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f>(A54-$B$271)^2</f>
         <v>5476</v>
       </c>
     </row>
@@ -2178,7 +2180,7 @@
         <v>5543</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f>(A55-$B$271)^2</f>
         <v>5329</v>
       </c>
     </row>
@@ -2187,7 +2189,7 @@
         <v>5544</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f>(A56-$B$271)^2</f>
         <v>5184</v>
       </c>
     </row>
@@ -2196,7 +2198,7 @@
         <v>5546</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f>(A57-$B$271)^2</f>
         <v>4900</v>
       </c>
     </row>
@@ -2205,7 +2207,7 @@
         <v>5546</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f>(A58-$B$271)^2</f>
         <v>4900</v>
       </c>
     </row>
@@ -2214,7 +2216,7 @@
         <v>5548</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f>(A59-$B$271)^2</f>
         <v>4624</v>
       </c>
     </row>
@@ -2223,7 +2225,7 @@
         <v>5548</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f>(A60-$B$271)^2</f>
         <v>4624</v>
       </c>
     </row>
@@ -2232,7 +2234,7 @@
         <v>5548</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f>(A61-$B$271)^2</f>
         <v>4624</v>
       </c>
     </row>
@@ -2241,7 +2243,7 @@
         <v>5549</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f>(A62-$B$271)^2</f>
         <v>4489</v>
       </c>
     </row>
@@ -2250,7 +2252,7 @@
         <v>5550</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f>(A63-$B$271)^2</f>
         <v>4356</v>
       </c>
     </row>
@@ -2259,7 +2261,7 @@
         <v>5551</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f>(A64-$B$271)^2</f>
         <v>4225</v>
       </c>
     </row>
@@ -2268,7 +2270,7 @@
         <v>5553</v>
       </c>
       <c r="B65">
-        <f t="shared" ref="B65:B128" si="5">(A65-$B$271)^2</f>
+        <f>(A65-$B$271)^2</f>
         <v>3969</v>
       </c>
     </row>
@@ -2277,7 +2279,7 @@
         <v>5554</v>
       </c>
       <c r="B66">
-        <f t="shared" si="5"/>
+        <f>(A66-$B$271)^2</f>
         <v>3844</v>
       </c>
     </row>
@@ -2286,7 +2288,7 @@
         <v>5554</v>
       </c>
       <c r="B67">
-        <f t="shared" si="5"/>
+        <f>(A67-$B$271)^2</f>
         <v>3844</v>
       </c>
     </row>
@@ -2295,7 +2297,7 @@
         <v>5558</v>
       </c>
       <c r="B68">
-        <f t="shared" si="5"/>
+        <f>(A68-$B$271)^2</f>
         <v>3364</v>
       </c>
     </row>
@@ -2304,7 +2306,7 @@
         <v>5560</v>
       </c>
       <c r="B69">
-        <f t="shared" si="5"/>
+        <f>(A69-$B$271)^2</f>
         <v>3136</v>
       </c>
     </row>
@@ -2313,7 +2315,7 @@
         <v>5561</v>
       </c>
       <c r="B70">
-        <f t="shared" si="5"/>
+        <f>(A70-$B$271)^2</f>
         <v>3025</v>
       </c>
     </row>
@@ -2322,7 +2324,7 @@
         <v>5562</v>
       </c>
       <c r="B71">
-        <f t="shared" si="5"/>
+        <f>(A71-$B$271)^2</f>
         <v>2916</v>
       </c>
     </row>
@@ -2331,7 +2333,7 @@
         <v>5563</v>
       </c>
       <c r="B72">
-        <f t="shared" si="5"/>
+        <f>(A72-$B$271)^2</f>
         <v>2809</v>
       </c>
     </row>
@@ -2340,7 +2342,7 @@
         <v>5563</v>
       </c>
       <c r="B73">
-        <f t="shared" si="5"/>
+        <f>(A73-$B$271)^2</f>
         <v>2809</v>
       </c>
     </row>
@@ -2349,7 +2351,7 @@
         <v>5563</v>
       </c>
       <c r="B74">
-        <f t="shared" si="5"/>
+        <f>(A74-$B$271)^2</f>
         <v>2809</v>
       </c>
     </row>
@@ -2358,7 +2360,7 @@
         <v>5564</v>
       </c>
       <c r="B75">
-        <f t="shared" si="5"/>
+        <f>(A75-$B$271)^2</f>
         <v>2704</v>
       </c>
     </row>
@@ -2367,7 +2369,7 @@
         <v>5565</v>
       </c>
       <c r="B76">
-        <f t="shared" si="5"/>
+        <f>(A76-$B$271)^2</f>
         <v>2601</v>
       </c>
     </row>
@@ -2376,7 +2378,7 @@
         <v>5565</v>
       </c>
       <c r="B77">
-        <f t="shared" si="5"/>
+        <f>(A77-$B$271)^2</f>
         <v>2601</v>
       </c>
     </row>
@@ -2385,7 +2387,7 @@
         <v>5565</v>
       </c>
       <c r="B78">
-        <f t="shared" si="5"/>
+        <f>(A78-$B$271)^2</f>
         <v>2601</v>
       </c>
     </row>
@@ -2394,7 +2396,7 @@
         <v>5566</v>
       </c>
       <c r="B79">
-        <f t="shared" si="5"/>
+        <f>(A79-$B$271)^2</f>
         <v>2500</v>
       </c>
     </row>
@@ -2403,7 +2405,7 @@
         <v>5566</v>
       </c>
       <c r="B80">
-        <f t="shared" si="5"/>
+        <f>(A80-$B$271)^2</f>
         <v>2500</v>
       </c>
     </row>
@@ -2412,7 +2414,7 @@
         <v>5566</v>
       </c>
       <c r="B81">
-        <f t="shared" si="5"/>
+        <f>(A81-$B$271)^2</f>
         <v>2500</v>
       </c>
     </row>
@@ -2421,7 +2423,7 @@
         <v>5567</v>
       </c>
       <c r="B82">
-        <f t="shared" si="5"/>
+        <f>(A82-$B$271)^2</f>
         <v>2401</v>
       </c>
     </row>
@@ -2430,7 +2432,7 @@
         <v>5567</v>
       </c>
       <c r="B83">
-        <f t="shared" si="5"/>
+        <f>(A83-$B$271)^2</f>
         <v>2401</v>
       </c>
     </row>
@@ -2439,7 +2441,7 @@
         <v>5567</v>
       </c>
       <c r="B84">
-        <f t="shared" si="5"/>
+        <f>(A84-$B$271)^2</f>
         <v>2401</v>
       </c>
     </row>
@@ -2448,7 +2450,7 @@
         <v>5568</v>
       </c>
       <c r="B85">
-        <f t="shared" si="5"/>
+        <f>(A85-$B$271)^2</f>
         <v>2304</v>
       </c>
     </row>
@@ -2457,7 +2459,7 @@
         <v>5568</v>
       </c>
       <c r="B86">
-        <f t="shared" si="5"/>
+        <f>(A86-$B$271)^2</f>
         <v>2304</v>
       </c>
     </row>
@@ -2466,7 +2468,7 @@
         <v>5568</v>
       </c>
       <c r="B87">
-        <f t="shared" si="5"/>
+        <f>(A87-$B$271)^2</f>
         <v>2304</v>
       </c>
     </row>
@@ -2475,7 +2477,7 @@
         <v>5570</v>
       </c>
       <c r="B88">
-        <f t="shared" si="5"/>
+        <f>(A88-$B$271)^2</f>
         <v>2116</v>
       </c>
     </row>
@@ -2484,7 +2486,7 @@
         <v>5571</v>
       </c>
       <c r="B89">
-        <f t="shared" si="5"/>
+        <f>(A89-$B$271)^2</f>
         <v>2025</v>
       </c>
     </row>
@@ -2493,7 +2495,7 @@
         <v>5571</v>
       </c>
       <c r="B90">
-        <f t="shared" si="5"/>
+        <f>(A90-$B$271)^2</f>
         <v>2025</v>
       </c>
     </row>
@@ -2502,7 +2504,7 @@
         <v>5571</v>
       </c>
       <c r="B91">
-        <f t="shared" si="5"/>
+        <f>(A91-$B$271)^2</f>
         <v>2025</v>
       </c>
     </row>
@@ -2511,7 +2513,7 @@
         <v>5572</v>
       </c>
       <c r="B92">
-        <f t="shared" si="5"/>
+        <f>(A92-$B$271)^2</f>
         <v>1936</v>
       </c>
     </row>
@@ -2520,7 +2522,7 @@
         <v>5572</v>
       </c>
       <c r="B93">
-        <f t="shared" si="5"/>
+        <f>(A93-$B$271)^2</f>
         <v>1936</v>
       </c>
     </row>
@@ -2529,7 +2531,7 @@
         <v>5572</v>
       </c>
       <c r="B94">
-        <f t="shared" si="5"/>
+        <f>(A94-$B$271)^2</f>
         <v>1936</v>
       </c>
     </row>
@@ -2538,7 +2540,7 @@
         <v>5572</v>
       </c>
       <c r="B95">
-        <f t="shared" si="5"/>
+        <f>(A95-$B$271)^2</f>
         <v>1936</v>
       </c>
     </row>
@@ -2547,7 +2549,7 @@
         <v>5572</v>
       </c>
       <c r="B96">
-        <f t="shared" si="5"/>
+        <f>(A96-$B$271)^2</f>
         <v>1936</v>
       </c>
     </row>
@@ -2556,7 +2558,7 @@
         <v>5573</v>
       </c>
       <c r="B97">
-        <f t="shared" si="5"/>
+        <f>(A97-$B$271)^2</f>
         <v>1849</v>
       </c>
     </row>
@@ -2565,7 +2567,7 @@
         <v>5574</v>
       </c>
       <c r="B98">
-        <f t="shared" si="5"/>
+        <f>(A98-$B$271)^2</f>
         <v>1764</v>
       </c>
     </row>
@@ -2574,7 +2576,7 @@
         <v>5574</v>
       </c>
       <c r="B99">
-        <f t="shared" si="5"/>
+        <f>(A99-$B$271)^2</f>
         <v>1764</v>
       </c>
     </row>
@@ -2583,7 +2585,7 @@
         <v>5575</v>
       </c>
       <c r="B100">
-        <f t="shared" si="5"/>
+        <f>(A100-$B$271)^2</f>
         <v>1681</v>
       </c>
     </row>
@@ -2592,7 +2594,7 @@
         <v>5576</v>
       </c>
       <c r="B101">
-        <f t="shared" si="5"/>
+        <f>(A101-$B$271)^2</f>
         <v>1600</v>
       </c>
     </row>
@@ -2601,7 +2603,7 @@
         <v>5576</v>
       </c>
       <c r="B102">
-        <f t="shared" si="5"/>
+        <f>(A102-$B$271)^2</f>
         <v>1600</v>
       </c>
     </row>
@@ -2610,7 +2612,7 @@
         <v>5576</v>
       </c>
       <c r="B103">
-        <f t="shared" si="5"/>
+        <f>(A103-$B$271)^2</f>
         <v>1600</v>
       </c>
     </row>
@@ -2619,7 +2621,7 @@
         <v>5576</v>
       </c>
       <c r="B104">
-        <f t="shared" si="5"/>
+        <f>(A104-$B$271)^2</f>
         <v>1600</v>
       </c>
     </row>
@@ -2628,7 +2630,7 @@
         <v>5578</v>
       </c>
       <c r="B105">
-        <f t="shared" si="5"/>
+        <f>(A105-$B$271)^2</f>
         <v>1444</v>
       </c>
     </row>
@@ -2637,7 +2639,7 @@
         <v>5579</v>
       </c>
       <c r="B106">
-        <f t="shared" si="5"/>
+        <f>(A106-$B$271)^2</f>
         <v>1369</v>
       </c>
     </row>
@@ -2646,7 +2648,7 @@
         <v>5580</v>
       </c>
       <c r="B107">
-        <f t="shared" si="5"/>
+        <f>(A107-$B$271)^2</f>
         <v>1296</v>
       </c>
     </row>
@@ -2655,7 +2657,7 @@
         <v>5580</v>
       </c>
       <c r="B108">
-        <f t="shared" si="5"/>
+        <f>(A108-$B$271)^2</f>
         <v>1296</v>
       </c>
     </row>
@@ -2664,7 +2666,7 @@
         <v>5581</v>
       </c>
       <c r="B109">
-        <f t="shared" si="5"/>
+        <f>(A109-$B$271)^2</f>
         <v>1225</v>
       </c>
     </row>
@@ -2673,7 +2675,7 @@
         <v>5581</v>
       </c>
       <c r="B110">
-        <f t="shared" si="5"/>
+        <f>(A110-$B$271)^2</f>
         <v>1225</v>
       </c>
     </row>
@@ -2682,7 +2684,7 @@
         <v>5581</v>
       </c>
       <c r="B111">
-        <f t="shared" si="5"/>
+        <f>(A111-$B$271)^2</f>
         <v>1225</v>
       </c>
     </row>
@@ -2691,7 +2693,7 @@
         <v>5581</v>
       </c>
       <c r="B112">
-        <f t="shared" si="5"/>
+        <f>(A112-$B$271)^2</f>
         <v>1225</v>
       </c>
     </row>
@@ -2700,7 +2702,7 @@
         <v>5582</v>
       </c>
       <c r="B113">
-        <f t="shared" si="5"/>
+        <f>(A113-$B$271)^2</f>
         <v>1156</v>
       </c>
     </row>
@@ -2709,7 +2711,7 @@
         <v>5582</v>
       </c>
       <c r="B114">
-        <f t="shared" si="5"/>
+        <f>(A114-$B$271)^2</f>
         <v>1156</v>
       </c>
     </row>
@@ -2718,7 +2720,7 @@
         <v>5582</v>
       </c>
       <c r="B115">
-        <f t="shared" si="5"/>
+        <f>(A115-$B$271)^2</f>
         <v>1156</v>
       </c>
     </row>
@@ -2727,7 +2729,7 @@
         <v>5583</v>
       </c>
       <c r="B116">
-        <f t="shared" si="5"/>
+        <f>(A116-$B$271)^2</f>
         <v>1089</v>
       </c>
     </row>
@@ -2736,7 +2738,7 @@
         <v>5583</v>
       </c>
       <c r="B117">
-        <f t="shared" si="5"/>
+        <f>(A117-$B$271)^2</f>
         <v>1089</v>
       </c>
     </row>
@@ -2745,7 +2747,7 @@
         <v>5585</v>
       </c>
       <c r="B118">
-        <f t="shared" si="5"/>
+        <f>(A118-$B$271)^2</f>
         <v>961</v>
       </c>
     </row>
@@ -2754,7 +2756,7 @@
         <v>5586</v>
       </c>
       <c r="B119">
-        <f t="shared" si="5"/>
+        <f>(A119-$B$271)^2</f>
         <v>900</v>
       </c>
     </row>
@@ -2763,7 +2765,7 @@
         <v>5587</v>
       </c>
       <c r="B120">
-        <f t="shared" si="5"/>
+        <f>(A120-$B$271)^2</f>
         <v>841</v>
       </c>
     </row>
@@ -2772,7 +2774,7 @@
         <v>5587</v>
       </c>
       <c r="B121">
-        <f t="shared" si="5"/>
+        <f>(A121-$B$271)^2</f>
         <v>841</v>
       </c>
     </row>
@@ -2781,7 +2783,7 @@
         <v>5588</v>
       </c>
       <c r="B122">
-        <f t="shared" si="5"/>
+        <f>(A122-$B$271)^2</f>
         <v>784</v>
       </c>
     </row>
@@ -2790,7 +2792,7 @@
         <v>5588</v>
       </c>
       <c r="B123">
-        <f t="shared" si="5"/>
+        <f>(A123-$B$271)^2</f>
         <v>784</v>
       </c>
     </row>
@@ -2799,7 +2801,7 @@
         <v>5589</v>
       </c>
       <c r="B124">
-        <f t="shared" si="5"/>
+        <f>(A124-$B$271)^2</f>
         <v>729</v>
       </c>
     </row>
@@ -2808,7 +2810,7 @@
         <v>5590</v>
       </c>
       <c r="B125">
-        <f t="shared" si="5"/>
+        <f>(A125-$B$271)^2</f>
         <v>676</v>
       </c>
     </row>
@@ -2817,7 +2819,7 @@
         <v>5590</v>
       </c>
       <c r="B126">
-        <f t="shared" si="5"/>
+        <f>(A126-$B$271)^2</f>
         <v>676</v>
       </c>
     </row>
@@ -2826,7 +2828,7 @@
         <v>5590</v>
       </c>
       <c r="B127">
-        <f t="shared" si="5"/>
+        <f>(A127-$B$271)^2</f>
         <v>676</v>
       </c>
     </row>
@@ -2835,7 +2837,7 @@
         <v>5590</v>
       </c>
       <c r="B128">
-        <f t="shared" si="5"/>
+        <f>(A128-$B$271)^2</f>
         <v>676</v>
       </c>
     </row>
@@ -2844,7 +2846,7 @@
         <v>5591</v>
       </c>
       <c r="B129">
-        <f t="shared" ref="B129:B192" si="6">(A129-$B$271)^2</f>
+        <f>(A129-$B$271)^2</f>
         <v>625</v>
       </c>
     </row>
@@ -2853,7 +2855,7 @@
         <v>5592</v>
       </c>
       <c r="B130">
-        <f t="shared" si="6"/>
+        <f>(A130-$B$271)^2</f>
         <v>576</v>
       </c>
     </row>
@@ -2862,7 +2864,7 @@
         <v>5592</v>
       </c>
       <c r="B131">
-        <f t="shared" si="6"/>
+        <f>(A131-$B$271)^2</f>
         <v>576</v>
       </c>
     </row>
@@ -2871,7 +2873,7 @@
         <v>5593</v>
       </c>
       <c r="B132">
-        <f t="shared" si="6"/>
+        <f>(A132-$B$271)^2</f>
         <v>529</v>
       </c>
     </row>
@@ -2880,7 +2882,7 @@
         <v>5593</v>
       </c>
       <c r="B133">
-        <f t="shared" si="6"/>
+        <f>(A133-$B$271)^2</f>
         <v>529</v>
       </c>
     </row>
@@ -2889,7 +2891,7 @@
         <v>5593</v>
       </c>
       <c r="B134">
-        <f t="shared" si="6"/>
+        <f>(A134-$B$271)^2</f>
         <v>529</v>
       </c>
     </row>
@@ -2898,7 +2900,7 @@
         <v>5595</v>
       </c>
       <c r="B135">
-        <f t="shared" si="6"/>
+        <f>(A135-$B$271)^2</f>
         <v>441</v>
       </c>
     </row>
@@ -2907,7 +2909,7 @@
         <v>5595</v>
       </c>
       <c r="B136">
-        <f t="shared" si="6"/>
+        <f>(A136-$B$271)^2</f>
         <v>441</v>
       </c>
     </row>
@@ -2916,7 +2918,7 @@
         <v>5596</v>
       </c>
       <c r="B137">
-        <f t="shared" si="6"/>
+        <f>(A137-$B$271)^2</f>
         <v>400</v>
       </c>
     </row>
@@ -2925,7 +2927,7 @@
         <v>5598</v>
       </c>
       <c r="B138">
-        <f t="shared" si="6"/>
+        <f>(A138-$B$271)^2</f>
         <v>324</v>
       </c>
     </row>
@@ -2934,7 +2936,7 @@
         <v>5598</v>
       </c>
       <c r="B139">
-        <f t="shared" si="6"/>
+        <f>(A139-$B$271)^2</f>
         <v>324</v>
       </c>
     </row>
@@ -2943,7 +2945,7 @@
         <v>5599</v>
       </c>
       <c r="B140">
-        <f t="shared" si="6"/>
+        <f>(A140-$B$271)^2</f>
         <v>289</v>
       </c>
     </row>
@@ -2952,7 +2954,7 @@
         <v>5599</v>
       </c>
       <c r="B141">
-        <f t="shared" si="6"/>
+        <f>(A141-$B$271)^2</f>
         <v>289</v>
       </c>
     </row>
@@ -2961,7 +2963,7 @@
         <v>5599</v>
       </c>
       <c r="B142">
-        <f t="shared" si="6"/>
+        <f>(A142-$B$271)^2</f>
         <v>289</v>
       </c>
     </row>
@@ -2970,7 +2972,7 @@
         <v>5600</v>
       </c>
       <c r="B143">
-        <f t="shared" si="6"/>
+        <f>(A143-$B$271)^2</f>
         <v>256</v>
       </c>
     </row>
@@ -2979,7 +2981,7 @@
         <v>5601</v>
       </c>
       <c r="B144">
-        <f t="shared" si="6"/>
+        <f>(A144-$B$271)^2</f>
         <v>225</v>
       </c>
     </row>
@@ -2988,7 +2990,7 @@
         <v>5602</v>
       </c>
       <c r="B145">
-        <f t="shared" si="6"/>
+        <f>(A145-$B$271)^2</f>
         <v>196</v>
       </c>
     </row>
@@ -2997,7 +2999,7 @@
         <v>5602</v>
       </c>
       <c r="B146">
-        <f t="shared" si="6"/>
+        <f>(A146-$B$271)^2</f>
         <v>196</v>
       </c>
     </row>
@@ -3006,7 +3008,7 @@
         <v>5603</v>
       </c>
       <c r="B147">
-        <f t="shared" si="6"/>
+        <f>(A147-$B$271)^2</f>
         <v>169</v>
       </c>
     </row>
@@ -3015,7 +3017,7 @@
         <v>5603</v>
       </c>
       <c r="B148">
-        <f t="shared" si="6"/>
+        <f>(A148-$B$271)^2</f>
         <v>169</v>
       </c>
     </row>
@@ -3024,7 +3026,7 @@
         <v>5604</v>
       </c>
       <c r="B149">
-        <f t="shared" si="6"/>
+        <f>(A149-$B$271)^2</f>
         <v>144</v>
       </c>
     </row>
@@ -3033,7 +3035,7 @@
         <v>5605</v>
       </c>
       <c r="B150">
-        <f t="shared" si="6"/>
+        <f>(A150-$B$271)^2</f>
         <v>121</v>
       </c>
     </row>
@@ -3042,7 +3044,7 @@
         <v>5606</v>
       </c>
       <c r="B151">
-        <f t="shared" si="6"/>
+        <f>(A151-$B$271)^2</f>
         <v>100</v>
       </c>
     </row>
@@ -3051,7 +3053,7 @@
         <v>5607</v>
       </c>
       <c r="B152">
-        <f t="shared" si="6"/>
+        <f>(A152-$B$271)^2</f>
         <v>81</v>
       </c>
     </row>
@@ -3060,7 +3062,7 @@
         <v>5607</v>
       </c>
       <c r="B153">
-        <f t="shared" si="6"/>
+        <f>(A153-$B$271)^2</f>
         <v>81</v>
       </c>
     </row>
@@ -3069,7 +3071,7 @@
         <v>5610</v>
       </c>
       <c r="B154">
-        <f t="shared" si="6"/>
+        <f>(A154-$B$271)^2</f>
         <v>36</v>
       </c>
     </row>
@@ -3078,7 +3080,7 @@
         <v>5610</v>
       </c>
       <c r="B155">
-        <f t="shared" si="6"/>
+        <f>(A155-$B$271)^2</f>
         <v>36</v>
       </c>
     </row>
@@ -3087,7 +3089,7 @@
         <v>5613</v>
       </c>
       <c r="B156">
-        <f t="shared" si="6"/>
+        <f>(A156-$B$271)^2</f>
         <v>9</v>
       </c>
     </row>
@@ -3096,7 +3098,7 @@
         <v>5614</v>
       </c>
       <c r="B157">
-        <f t="shared" si="6"/>
+        <f>(A157-$B$271)^2</f>
         <v>4</v>
       </c>
     </row>
@@ -3105,7 +3107,7 @@
         <v>5617</v>
       </c>
       <c r="B158">
-        <f t="shared" si="6"/>
+        <f>(A158-$B$271)^2</f>
         <v>1</v>
       </c>
     </row>
@@ -3114,7 +3116,7 @@
         <v>5617</v>
       </c>
       <c r="B159">
-        <f t="shared" si="6"/>
+        <f>(A159-$B$271)^2</f>
         <v>1</v>
       </c>
     </row>
@@ -3123,7 +3125,7 @@
         <v>5619</v>
       </c>
       <c r="B160">
-        <f t="shared" si="6"/>
+        <f>(A160-$B$271)^2</f>
         <v>9</v>
       </c>
     </row>
@@ -3132,7 +3134,7 @@
         <v>5619</v>
       </c>
       <c r="B161">
-        <f t="shared" si="6"/>
+        <f>(A161-$B$271)^2</f>
         <v>9</v>
       </c>
     </row>
@@ -3141,7 +3143,7 @@
         <v>5619</v>
       </c>
       <c r="B162">
-        <f t="shared" si="6"/>
+        <f>(A162-$B$271)^2</f>
         <v>9</v>
       </c>
     </row>
@@ -3150,7 +3152,7 @@
         <v>5621</v>
       </c>
       <c r="B163">
-        <f t="shared" si="6"/>
+        <f>(A163-$B$271)^2</f>
         <v>25</v>
       </c>
     </row>
@@ -3159,7 +3161,7 @@
         <v>5622</v>
       </c>
       <c r="B164">
-        <f t="shared" si="6"/>
+        <f>(A164-$B$271)^2</f>
         <v>36</v>
       </c>
     </row>
@@ -3168,7 +3170,7 @@
         <v>5623</v>
       </c>
       <c r="B165">
-        <f t="shared" si="6"/>
+        <f>(A165-$B$271)^2</f>
         <v>49</v>
       </c>
     </row>
@@ -3177,7 +3179,7 @@
         <v>5624</v>
       </c>
       <c r="B166">
-        <f t="shared" si="6"/>
+        <f>(A166-$B$271)^2</f>
         <v>64</v>
       </c>
     </row>
@@ -3186,7 +3188,7 @@
         <v>5624</v>
       </c>
       <c r="B167">
-        <f t="shared" si="6"/>
+        <f>(A167-$B$271)^2</f>
         <v>64</v>
       </c>
     </row>
@@ -3195,7 +3197,7 @@
         <v>5625</v>
       </c>
       <c r="B168">
-        <f t="shared" si="6"/>
+        <f>(A168-$B$271)^2</f>
         <v>81</v>
       </c>
     </row>
@@ -3204,7 +3206,7 @@
         <v>5626</v>
       </c>
       <c r="B169">
-        <f t="shared" si="6"/>
+        <f>(A169-$B$271)^2</f>
         <v>100</v>
       </c>
     </row>
@@ -3213,7 +3215,7 @@
         <v>5627</v>
       </c>
       <c r="B170">
-        <f t="shared" si="6"/>
+        <f>(A170-$B$271)^2</f>
         <v>121</v>
       </c>
     </row>
@@ -3222,7 +3224,7 @@
         <v>5627</v>
       </c>
       <c r="B171">
-        <f t="shared" si="6"/>
+        <f>(A171-$B$271)^2</f>
         <v>121</v>
       </c>
     </row>
@@ -3231,7 +3233,7 @@
         <v>5627</v>
       </c>
       <c r="B172">
-        <f t="shared" si="6"/>
+        <f>(A172-$B$271)^2</f>
         <v>121</v>
       </c>
     </row>
@@ -3240,7 +3242,7 @@
         <v>5627</v>
       </c>
       <c r="B173">
-        <f t="shared" si="6"/>
+        <f>(A173-$B$271)^2</f>
         <v>121</v>
       </c>
     </row>
@@ -3249,7 +3251,7 @@
         <v>5628</v>
       </c>
       <c r="B174">
-        <f t="shared" si="6"/>
+        <f>(A174-$B$271)^2</f>
         <v>144</v>
       </c>
     </row>
@@ -3258,7 +3260,7 @@
         <v>5629</v>
       </c>
       <c r="B175">
-        <f t="shared" si="6"/>
+        <f>(A175-$B$271)^2</f>
         <v>169</v>
       </c>
     </row>
@@ -3267,7 +3269,7 @@
         <v>5633</v>
       </c>
       <c r="B176">
-        <f t="shared" si="6"/>
+        <f>(A176-$B$271)^2</f>
         <v>289</v>
       </c>
     </row>
@@ -3276,7 +3278,7 @@
         <v>5634</v>
       </c>
       <c r="B177">
-        <f t="shared" si="6"/>
+        <f>(A177-$B$271)^2</f>
         <v>324</v>
       </c>
     </row>
@@ -3285,7 +3287,7 @@
         <v>5635</v>
       </c>
       <c r="B178">
-        <f t="shared" si="6"/>
+        <f>(A178-$B$271)^2</f>
         <v>361</v>
       </c>
     </row>
@@ -3294,7 +3296,7 @@
         <v>5636</v>
       </c>
       <c r="B179">
-        <f t="shared" si="6"/>
+        <f>(A179-$B$271)^2</f>
         <v>400</v>
       </c>
     </row>
@@ -3303,7 +3305,7 @@
         <v>5638</v>
       </c>
       <c r="B180">
-        <f t="shared" si="6"/>
+        <f>(A180-$B$271)^2</f>
         <v>484</v>
       </c>
     </row>
@@ -3312,7 +3314,7 @@
         <v>5639</v>
       </c>
       <c r="B181">
-        <f t="shared" si="6"/>
+        <f>(A181-$B$271)^2</f>
         <v>529</v>
       </c>
     </row>
@@ -3321,7 +3323,7 @@
         <v>5640</v>
       </c>
       <c r="B182">
-        <f t="shared" si="6"/>
+        <f>(A182-$B$271)^2</f>
         <v>576</v>
       </c>
     </row>
@@ -3330,7 +3332,7 @@
         <v>5640</v>
       </c>
       <c r="B183">
-        <f t="shared" si="6"/>
+        <f>(A183-$B$271)^2</f>
         <v>576</v>
       </c>
     </row>
@@ -3339,7 +3341,7 @@
         <v>5640</v>
       </c>
       <c r="B184">
-        <f t="shared" si="6"/>
+        <f>(A184-$B$271)^2</f>
         <v>576</v>
       </c>
     </row>
@@ -3348,7 +3350,7 @@
         <v>5641</v>
       </c>
       <c r="B185">
-        <f t="shared" si="6"/>
+        <f>(A185-$B$271)^2</f>
         <v>625</v>
       </c>
     </row>
@@ -3357,7 +3359,7 @@
         <v>5641</v>
       </c>
       <c r="B186">
-        <f t="shared" si="6"/>
+        <f>(A186-$B$271)^2</f>
         <v>625</v>
       </c>
     </row>
@@ -3366,7 +3368,7 @@
         <v>5641</v>
       </c>
       <c r="B187">
-        <f t="shared" si="6"/>
+        <f>(A187-$B$271)^2</f>
         <v>625</v>
       </c>
     </row>
@@ -3375,7 +3377,7 @@
         <v>5643</v>
       </c>
       <c r="B188">
-        <f t="shared" si="6"/>
+        <f>(A188-$B$271)^2</f>
         <v>729</v>
       </c>
     </row>
@@ -3384,7 +3386,7 @@
         <v>5644</v>
       </c>
       <c r="B189">
-        <f t="shared" si="6"/>
+        <f>(A189-$B$271)^2</f>
         <v>784</v>
       </c>
     </row>
@@ -3393,7 +3395,7 @@
         <v>5646</v>
       </c>
       <c r="B190">
-        <f t="shared" si="6"/>
+        <f>(A190-$B$271)^2</f>
         <v>900</v>
       </c>
     </row>
@@ -3402,7 +3404,7 @@
         <v>5647</v>
       </c>
       <c r="B191">
-        <f t="shared" si="6"/>
+        <f>(A191-$B$271)^2</f>
         <v>961</v>
       </c>
     </row>
@@ -3411,7 +3413,7 @@
         <v>5647</v>
       </c>
       <c r="B192">
-        <f t="shared" si="6"/>
+        <f>(A192-$B$271)^2</f>
         <v>961</v>
       </c>
     </row>
@@ -3420,7 +3422,7 @@
         <v>5648</v>
       </c>
       <c r="B193">
-        <f t="shared" ref="B193:B256" si="7">(A193-$B$271)^2</f>
+        <f>(A193-$B$271)^2</f>
         <v>1024</v>
       </c>
     </row>
@@ -3429,7 +3431,7 @@
         <v>5648</v>
       </c>
       <c r="B194">
-        <f t="shared" si="7"/>
+        <f>(A194-$B$271)^2</f>
         <v>1024</v>
       </c>
     </row>
@@ -3438,7 +3440,7 @@
         <v>5652</v>
       </c>
       <c r="B195">
-        <f t="shared" si="7"/>
+        <f>(A195-$B$271)^2</f>
         <v>1296</v>
       </c>
     </row>
@@ -3447,7 +3449,7 @@
         <v>5653</v>
       </c>
       <c r="B196">
-        <f t="shared" si="7"/>
+        <f>(A196-$B$271)^2</f>
         <v>1369</v>
       </c>
     </row>
@@ -3456,7 +3458,7 @@
         <v>5653</v>
       </c>
       <c r="B197">
-        <f t="shared" si="7"/>
+        <f>(A197-$B$271)^2</f>
         <v>1369</v>
       </c>
     </row>
@@ -3465,7 +3467,7 @@
         <v>5654</v>
       </c>
       <c r="B198">
-        <f t="shared" si="7"/>
+        <f>(A198-$B$271)^2</f>
         <v>1444</v>
       </c>
     </row>
@@ -3474,7 +3476,7 @@
         <v>5654</v>
       </c>
       <c r="B199">
-        <f t="shared" si="7"/>
+        <f>(A199-$B$271)^2</f>
         <v>1444</v>
       </c>
     </row>
@@ -3483,7 +3485,7 @@
         <v>5655</v>
       </c>
       <c r="B200">
-        <f t="shared" si="7"/>
+        <f>(A200-$B$271)^2</f>
         <v>1521</v>
       </c>
     </row>
@@ -3492,7 +3494,7 @@
         <v>5656</v>
       </c>
       <c r="B201">
-        <f t="shared" si="7"/>
+        <f>(A201-$B$271)^2</f>
         <v>1600</v>
       </c>
     </row>
@@ -3501,7 +3503,7 @@
         <v>5657</v>
       </c>
       <c r="B202">
-        <f t="shared" si="7"/>
+        <f>(A202-$B$271)^2</f>
         <v>1681</v>
       </c>
     </row>
@@ -3510,7 +3512,7 @@
         <v>5661</v>
       </c>
       <c r="B203">
-        <f t="shared" si="7"/>
+        <f>(A203-$B$271)^2</f>
         <v>2025</v>
       </c>
     </row>
@@ -3519,7 +3521,7 @@
         <v>5663</v>
       </c>
       <c r="B204">
-        <f t="shared" si="7"/>
+        <f>(A204-$B$271)^2</f>
         <v>2209</v>
       </c>
     </row>
@@ -3528,7 +3530,7 @@
         <v>5664</v>
       </c>
       <c r="B205">
-        <f t="shared" si="7"/>
+        <f>(A205-$B$271)^2</f>
         <v>2304</v>
       </c>
     </row>
@@ -3537,7 +3539,7 @@
         <v>5668</v>
       </c>
       <c r="B206">
-        <f t="shared" si="7"/>
+        <f>(A206-$B$271)^2</f>
         <v>2704</v>
       </c>
     </row>
@@ -3546,7 +3548,7 @@
         <v>5670</v>
       </c>
       <c r="B207">
-        <f t="shared" si="7"/>
+        <f>(A207-$B$271)^2</f>
         <v>2916</v>
       </c>
     </row>
@@ -3555,7 +3557,7 @@
         <v>5671</v>
       </c>
       <c r="B208">
-        <f t="shared" si="7"/>
+        <f>(A208-$B$271)^2</f>
         <v>3025</v>
       </c>
     </row>
@@ -3564,7 +3566,7 @@
         <v>5674</v>
       </c>
       <c r="B209">
-        <f t="shared" si="7"/>
+        <f>(A209-$B$271)^2</f>
         <v>3364</v>
       </c>
     </row>
@@ -3573,7 +3575,7 @@
         <v>5676</v>
       </c>
       <c r="B210">
-        <f t="shared" si="7"/>
+        <f>(A210-$B$271)^2</f>
         <v>3600</v>
       </c>
     </row>
@@ -3582,7 +3584,7 @@
         <v>5676</v>
       </c>
       <c r="B211">
-        <f t="shared" si="7"/>
+        <f>(A211-$B$271)^2</f>
         <v>3600</v>
       </c>
     </row>
@@ -3591,7 +3593,7 @@
         <v>5682</v>
       </c>
       <c r="B212">
-        <f t="shared" si="7"/>
+        <f>(A212-$B$271)^2</f>
         <v>4356</v>
       </c>
     </row>
@@ -3600,7 +3602,7 @@
         <v>5683</v>
       </c>
       <c r="B213">
-        <f t="shared" si="7"/>
+        <f>(A213-$B$271)^2</f>
         <v>4489</v>
       </c>
     </row>
@@ -3609,7 +3611,7 @@
         <v>5687</v>
       </c>
       <c r="B214">
-        <f t="shared" si="7"/>
+        <f>(A214-$B$271)^2</f>
         <v>5041</v>
       </c>
     </row>
@@ -3618,7 +3620,7 @@
         <v>5689</v>
       </c>
       <c r="B215">
-        <f t="shared" si="7"/>
+        <f>(A215-$B$271)^2</f>
         <v>5329</v>
       </c>
     </row>
@@ -3627,7 +3629,7 @@
         <v>5691</v>
       </c>
       <c r="B216">
-        <f t="shared" si="7"/>
+        <f>(A216-$B$271)^2</f>
         <v>5625</v>
       </c>
     </row>
@@ -3636,7 +3638,7 @@
         <v>5692</v>
       </c>
       <c r="B217">
-        <f t="shared" si="7"/>
+        <f>(A217-$B$271)^2</f>
         <v>5776</v>
       </c>
     </row>
@@ -3645,7 +3647,7 @@
         <v>5693</v>
       </c>
       <c r="B218">
-        <f t="shared" si="7"/>
+        <f>(A218-$B$271)^2</f>
         <v>5929</v>
       </c>
     </row>
@@ -3654,7 +3656,7 @@
         <v>5695</v>
       </c>
       <c r="B219">
-        <f t="shared" si="7"/>
+        <f>(A219-$B$271)^2</f>
         <v>6241</v>
       </c>
     </row>
@@ -3663,7 +3665,7 @@
         <v>5695</v>
       </c>
       <c r="B220">
-        <f t="shared" si="7"/>
+        <f>(A220-$B$271)^2</f>
         <v>6241</v>
       </c>
     </row>
@@ -3672,7 +3674,7 @@
         <v>5699</v>
       </c>
       <c r="B221">
-        <f t="shared" si="7"/>
+        <f>(A221-$B$271)^2</f>
         <v>6889</v>
       </c>
     </row>
@@ -3681,7 +3683,7 @@
         <v>5700</v>
       </c>
       <c r="B222">
-        <f t="shared" si="7"/>
+        <f>(A222-$B$271)^2</f>
         <v>7056</v>
       </c>
     </row>
@@ -3690,7 +3692,7 @@
         <v>5702</v>
       </c>
       <c r="B223">
-        <f t="shared" si="7"/>
+        <f>(A223-$B$271)^2</f>
         <v>7396</v>
       </c>
     </row>
@@ -3699,7 +3701,7 @@
         <v>5715</v>
       </c>
       <c r="B224">
-        <f t="shared" si="7"/>
+        <f>(A224-$B$271)^2</f>
         <v>9801</v>
       </c>
     </row>
@@ -3708,7 +3710,7 @@
         <v>5716</v>
       </c>
       <c r="B225">
-        <f t="shared" si="7"/>
+        <f>(A225-$B$271)^2</f>
         <v>10000</v>
       </c>
     </row>
@@ -3717,7 +3719,7 @@
         <v>5716</v>
       </c>
       <c r="B226">
-        <f t="shared" si="7"/>
+        <f>(A226-$B$271)^2</f>
         <v>10000</v>
       </c>
     </row>
@@ -3726,7 +3728,7 @@
         <v>5718</v>
       </c>
       <c r="B227">
-        <f t="shared" si="7"/>
+        <f>(A227-$B$271)^2</f>
         <v>10404</v>
       </c>
     </row>
@@ -3735,7 +3737,7 @@
         <v>5719</v>
       </c>
       <c r="B228">
-        <f t="shared" si="7"/>
+        <f>(A228-$B$271)^2</f>
         <v>10609</v>
       </c>
     </row>
@@ -3744,7 +3746,7 @@
         <v>5725</v>
       </c>
       <c r="B229">
-        <f t="shared" si="7"/>
+        <f>(A229-$B$271)^2</f>
         <v>11881</v>
       </c>
     </row>
@@ -3753,7 +3755,7 @@
         <v>5725</v>
       </c>
       <c r="B230">
-        <f t="shared" si="7"/>
+        <f>(A230-$B$271)^2</f>
         <v>11881</v>
       </c>
     </row>
@@ -3762,7 +3764,7 @@
         <v>5729</v>
       </c>
       <c r="B231">
-        <f t="shared" si="7"/>
+        <f>(A231-$B$271)^2</f>
         <v>12769</v>
       </c>
     </row>
@@ -3771,7 +3773,7 @@
         <v>5731</v>
       </c>
       <c r="B232">
-        <f t="shared" si="7"/>
+        <f>(A232-$B$271)^2</f>
         <v>13225</v>
       </c>
     </row>
@@ -3780,7 +3782,7 @@
         <v>5732</v>
       </c>
       <c r="B233">
-        <f t="shared" si="7"/>
+        <f>(A233-$B$271)^2</f>
         <v>13456</v>
       </c>
     </row>
@@ -3789,7 +3791,7 @@
         <v>5735</v>
       </c>
       <c r="B234">
-        <f t="shared" si="7"/>
+        <f>(A234-$B$271)^2</f>
         <v>14161</v>
       </c>
     </row>
@@ -3798,7 +3800,7 @@
         <v>5738</v>
       </c>
       <c r="B235">
-        <f t="shared" si="7"/>
+        <f>(A235-$B$271)^2</f>
         <v>14884</v>
       </c>
     </row>
@@ -3807,7 +3809,7 @@
         <v>5739</v>
       </c>
       <c r="B236">
-        <f t="shared" si="7"/>
+        <f>(A236-$B$271)^2</f>
         <v>15129</v>
       </c>
     </row>
@@ -3816,7 +3818,7 @@
         <v>5740</v>
       </c>
       <c r="B237">
-        <f t="shared" si="7"/>
+        <f>(A237-$B$271)^2</f>
         <v>15376</v>
       </c>
     </row>
@@ -3825,7 +3827,7 @@
         <v>5741</v>
       </c>
       <c r="B238">
-        <f t="shared" si="7"/>
+        <f>(A238-$B$271)^2</f>
         <v>15625</v>
       </c>
     </row>
@@ -3834,7 +3836,7 @@
         <v>5743</v>
       </c>
       <c r="B239">
-        <f t="shared" si="7"/>
+        <f>(A239-$B$271)^2</f>
         <v>16129</v>
       </c>
     </row>
@@ -3843,7 +3845,7 @@
         <v>5748</v>
       </c>
       <c r="B240">
-        <f t="shared" si="7"/>
+        <f>(A240-$B$271)^2</f>
         <v>17424</v>
       </c>
     </row>
@@ -3852,7 +3854,7 @@
         <v>5750</v>
       </c>
       <c r="B241">
-        <f t="shared" si="7"/>
+        <f>(A241-$B$271)^2</f>
         <v>17956</v>
       </c>
     </row>
@@ -3861,7 +3863,7 @@
         <v>5758</v>
       </c>
       <c r="B242">
-        <f t="shared" si="7"/>
+        <f>(A242-$B$271)^2</f>
         <v>20164</v>
       </c>
     </row>
@@ -3870,7 +3872,7 @@
         <v>5761</v>
       </c>
       <c r="B243">
-        <f t="shared" si="7"/>
+        <f>(A243-$B$271)^2</f>
         <v>21025</v>
       </c>
     </row>
@@ -3879,7 +3881,7 @@
         <v>5762</v>
       </c>
       <c r="B244">
-        <f t="shared" si="7"/>
+        <f>(A244-$B$271)^2</f>
         <v>21316</v>
       </c>
     </row>
@@ -3888,7 +3890,7 @@
         <v>5764</v>
       </c>
       <c r="B245">
-        <f t="shared" si="7"/>
+        <f>(A245-$B$271)^2</f>
         <v>21904</v>
       </c>
     </row>
@@ -3897,7 +3899,7 @@
         <v>5778</v>
       </c>
       <c r="B246">
-        <f t="shared" si="7"/>
+        <f>(A246-$B$271)^2</f>
         <v>26244</v>
       </c>
     </row>
@@ -3906,7 +3908,7 @@
         <v>5785</v>
       </c>
       <c r="B247">
-        <f t="shared" si="7"/>
+        <f>(A247-$B$271)^2</f>
         <v>28561</v>
       </c>
     </row>
@@ -3915,7 +3917,7 @@
         <v>5789</v>
       </c>
       <c r="B248">
-        <f t="shared" si="7"/>
+        <f>(A248-$B$271)^2</f>
         <v>29929</v>
       </c>
     </row>
@@ -3924,7 +3926,7 @@
         <v>5796</v>
       </c>
       <c r="B249">
-        <f t="shared" si="7"/>
+        <f>(A249-$B$271)^2</f>
         <v>32400</v>
       </c>
     </row>
@@ -3933,7 +3935,7 @@
         <v>5801</v>
       </c>
       <c r="B250">
-        <f t="shared" si="7"/>
+        <f>(A250-$B$271)^2</f>
         <v>34225</v>
       </c>
     </row>
@@ -3942,7 +3944,7 @@
         <v>5803</v>
       </c>
       <c r="B251">
-        <f t="shared" si="7"/>
+        <f>(A251-$B$271)^2</f>
         <v>34969</v>
       </c>
     </row>
@@ -3951,7 +3953,7 @@
         <v>5804</v>
       </c>
       <c r="B252">
-        <f t="shared" si="7"/>
+        <f>(A252-$B$271)^2</f>
         <v>35344</v>
       </c>
     </row>
@@ -3960,7 +3962,7 @@
         <v>5804</v>
       </c>
       <c r="B253">
-        <f t="shared" si="7"/>
+        <f>(A253-$B$271)^2</f>
         <v>35344</v>
       </c>
     </row>
@@ -3969,7 +3971,7 @@
         <v>5805</v>
       </c>
       <c r="B254">
-        <f t="shared" si="7"/>
+        <f>(A254-$B$271)^2</f>
         <v>35721</v>
       </c>
     </row>
@@ -3978,7 +3980,7 @@
         <v>5810</v>
       </c>
       <c r="B255">
-        <f t="shared" si="7"/>
+        <f>(A255-$B$271)^2</f>
         <v>37636</v>
       </c>
     </row>
@@ -3987,7 +3989,7 @@
         <v>5816</v>
       </c>
       <c r="B256">
-        <f t="shared" si="7"/>
+        <f>(A256-$B$271)^2</f>
         <v>40000</v>
       </c>
     </row>
@@ -3996,7 +3998,7 @@
         <v>5820</v>
       </c>
       <c r="B257">
-        <f t="shared" ref="B257:B320" si="8">(A257-$B$271)^2</f>
+        <f>(A257-$B$271)^2</f>
         <v>41616</v>
       </c>
     </row>
@@ -4005,7 +4007,7 @@
         <v>5821</v>
       </c>
       <c r="B258">
-        <f t="shared" si="8"/>
+        <f>(A258-$B$271)^2</f>
         <v>42025</v>
       </c>
     </row>
@@ -4014,7 +4016,7 @@
         <v>5824</v>
       </c>
       <c r="B259">
-        <f t="shared" si="8"/>
+        <f>(A259-$B$271)^2</f>
         <v>43264</v>
       </c>
     </row>
@@ -4023,7 +4025,7 @@
         <v>5829</v>
       </c>
       <c r="B260">
-        <f t="shared" si="8"/>
+        <f>(A260-$B$271)^2</f>
         <v>45369</v>
       </c>
     </row>
@@ -4032,7 +4034,7 @@
         <v>5843</v>
       </c>
       <c r="B261">
-        <f t="shared" si="8"/>
+        <f>(A261-$B$271)^2</f>
         <v>51529</v>
       </c>
     </row>
@@ -4041,7 +4043,7 @@
         <v>5849</v>
       </c>
       <c r="B262">
-        <f t="shared" si="8"/>
+        <f>(A262-$B$271)^2</f>
         <v>54289</v>
       </c>
     </row>
@@ -4050,7 +4052,7 @@
         <v>5854</v>
       </c>
       <c r="B263">
-        <f t="shared" si="8"/>
+        <f>(A263-$B$271)^2</f>
         <v>56644</v>
       </c>
     </row>
@@ -4059,7 +4061,7 @@
         <v>5860</v>
       </c>
       <c r="B264">
-        <f t="shared" si="8"/>
+        <f>(A264-$B$271)^2</f>
         <v>59536</v>
       </c>
     </row>
@@ -4068,7 +4070,7 @@
         <v>5874</v>
       </c>
       <c r="B265">
-        <f t="shared" si="8"/>
+        <f>(A265-$B$271)^2</f>
         <v>66564</v>
       </c>
     </row>
@@ -4077,7 +4079,7 @@
         <v>5887</v>
       </c>
       <c r="B266">
-        <f t="shared" si="8"/>
+        <f>(A266-$B$271)^2</f>
         <v>73441</v>
       </c>
     </row>
@@ -4086,7 +4088,7 @@
         <v>5888</v>
       </c>
       <c r="B267">
-        <f t="shared" si="8"/>
+        <f>(A267-$B$271)^2</f>
         <v>73984</v>
       </c>
     </row>
@@ -4095,7 +4097,7 @@
         <v>5894</v>
       </c>
       <c r="B268">
-        <f t="shared" si="8"/>
+        <f>(A268-$B$271)^2</f>
         <v>77284</v>
       </c>
     </row>
@@ -4104,7 +4106,7 @@
         <v>5901</v>
       </c>
       <c r="B269">
-        <f t="shared" si="8"/>
+        <f>(A269-$B$271)^2</f>
         <v>81225</v>
       </c>
     </row>
@@ -4113,7 +4115,7 @@
         <v>5912</v>
       </c>
       <c r="B270">
-        <f t="shared" si="8"/>
+        <f>(A270-$B$271)^2</f>
         <v>87616</v>
       </c>
     </row>

--- a/Лаба.xlsx
+++ b/Лаба.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kseniaparygina/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\Pasha\get-dibr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06E9F933-F50D-784D-B3DE-040D00460469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96048FAF-37AD-472F-B002-A754B5774FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{030AE6C6-F2AA-6347-B9AE-E1DDF040043E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{030AE6C6-F2AA-6347-B9AE-E1DDF040043E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Лист1!$A$1:$A$270</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$A$1:$A$270</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$A$1:$A$270</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$A$1:$A$270</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$A$1:$A$270</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$A$1:$A$270</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Cр. Знач:</t>
   </si>
@@ -54,6 +49,12 @@
   </si>
   <si>
     <t>w * 100</t>
+  </si>
+  <si>
+    <t>djkfhjk</t>
+  </si>
+  <si>
+    <t>jfgkhd</t>
   </si>
 </sst>
 </file>
@@ -134,7 +135,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -798,8 +799,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6711950" y="53460650"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6935470" y="52124610"/>
+              <a:ext cx="4711700" cy="2677160"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1132,26 +1133,26 @@
   <dimension ref="A1:Y272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5407</v>
       </c>
       <c r="B1">
-        <f>(A1-$B$271)^2</f>
+        <f t="shared" ref="B1:B64" si="0">(A1-$B$271)^2</f>
         <v>43681</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5422</v>
       </c>
       <c r="B2">
-        <f>(A2-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>37636</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1191,12 +1192,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5429</v>
       </c>
       <c r="B3">
-        <f>(A3-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>34969</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1207,52 +1208,52 @@
         <v>5457.5</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:O3" si="0">$D$6+F2*$G$8</f>
+        <f t="shared" ref="F3:O3" si="1">$D$6+F2*$G$8</f>
         <v>5508</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5558.5</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5609</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5659.5</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5710</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5760.5</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5811</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5861.5</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5912</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5962.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5429</v>
       </c>
       <c r="B4">
-        <f>(A4-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>34969</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1270,12 +1271,12 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5433</v>
       </c>
       <c r="B5">
-        <f>(A5-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>33489</v>
       </c>
       <c r="E5">
@@ -1323,12 +1324,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5435</v>
       </c>
       <c r="B6">
-        <f>(A6-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>32761</v>
       </c>
       <c r="D6">
@@ -1340,52 +1341,52 @@
         <v>6.6006600660066007E-4</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:O6" si="1">F5/(270*$G$8)</f>
+        <f t="shared" ref="F6:O6" si="2">F5/(270*$G$8)</f>
         <v>1.6868353502016869E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6402640264026403E-3</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2339567290062336E-3</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.887055372203887E-3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2467913458012467E-3</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6006600660066007E-4</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5342867620095339E-4</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6006600660066007E-4</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.667033370003667E-4</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3340667400073343E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5435</v>
       </c>
       <c r="B7">
-        <f>(A7-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>32761</v>
       </c>
       <c r="D7">
@@ -1393,12 +1394,12 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5438</v>
       </c>
       <c r="B8">
-        <f>(A8-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>31684</v>
       </c>
       <c r="F8" t="s">
@@ -1409,12 +1410,12 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5450</v>
       </c>
       <c r="B9">
-        <f>(A9-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>27556</v>
       </c>
       <c r="F9" t="s">
@@ -1425,30 +1426,30 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5461</v>
       </c>
       <c r="B10">
-        <f>(A10-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>24025</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5461</v>
       </c>
       <c r="B11">
-        <f>(A11-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>24025</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5465</v>
       </c>
       <c r="B12">
-        <f>(A12-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>22801</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1518,12 +1519,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5469</v>
       </c>
       <c r="B13">
-        <f>(A13-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>21609</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1534,92 +1535,92 @@
         <v>5432.25</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ref="F13:Y13" si="2">$D$6+F12*$G$9</f>
+        <f t="shared" ref="F13:Y13" si="3">$D$6+F12*$G$9</f>
         <v>5457.5</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5482.75</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5508</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5533.25</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5558.5</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5583.75</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5609</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5634.25</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5659.5</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5684.75</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5710</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5735.25</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5760.5</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5785.75</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5811</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5836.25</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5861.5</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5886.75</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5912</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5937.25</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5470</v>
       </c>
       <c r="B14">
-        <f>(A14-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>21316</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1647,12 +1648,12 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5471</v>
       </c>
       <c r="B15">
-        <f>(A15-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>21025</v>
       </c>
       <c r="E15">
@@ -1740,12 +1741,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5473</v>
       </c>
       <c r="B16">
-        <f>(A16-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>20449</v>
       </c>
       <c r="E16">
@@ -1753,2373 +1754,2379 @@
         <v>5.8672533920058674E-4</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:Y16" si="3">F15/(270*$G$9)</f>
+        <f t="shared" ref="F16:Y16" si="4">F15/(270*$G$9)</f>
         <v>7.334066740007334E-4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3201320132013201E-3</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0535386872020537E-3</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.346901356802347E-3</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9336266960029336E-3</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1873854052071874E-3</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2805280528052806E-3</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5203520352035203E-3</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6670333700036671E-3</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6134946828016135E-3</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4668133480014668E-3</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6134946828016135E-3</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1734506784011735E-3</v>
       </c>
       <c r="S16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.334066740007334E-4</v>
       </c>
       <c r="T16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1734506784011735E-3</v>
       </c>
       <c r="U16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.334066740007334E-4</v>
       </c>
       <c r="V16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8672533920058674E-4</v>
       </c>
       <c r="W16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4668133480014669E-4</v>
       </c>
       <c r="X16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8672533920058674E-4</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4668133480014669E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5476</v>
       </c>
       <c r="B17">
-        <f>(A17-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>19600</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5478</v>
       </c>
       <c r="B18">
-        <f>(A18-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>19044</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5484</v>
       </c>
       <c r="B19">
-        <f>(A19-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>17424</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5486</v>
       </c>
       <c r="B20">
-        <f>(A20-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5486</v>
       </c>
       <c r="B21">
-        <f>(A21-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5488</v>
       </c>
       <c r="B22">
-        <f>(A22-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5489</v>
       </c>
       <c r="B23">
-        <f>(A23-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16129</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5489</v>
       </c>
       <c r="B24">
-        <f>(A24-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16129</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5489</v>
       </c>
       <c r="B25">
-        <f>(A25-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>16129</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5492</v>
       </c>
       <c r="B26">
-        <f>(A26-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>15376</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5496</v>
       </c>
       <c r="B27">
-        <f>(A27-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>14400</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5501</v>
       </c>
       <c r="B28">
-        <f>(A28-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>13225</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5501</v>
       </c>
       <c r="B29">
-        <f>(A29-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>13225</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5501</v>
       </c>
       <c r="B30">
-        <f>(A30-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>13225</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5505</v>
       </c>
       <c r="B31">
-        <f>(A31-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>12321</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5506</v>
       </c>
       <c r="B32">
-        <f>(A32-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>12100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5508</v>
       </c>
       <c r="B33">
-        <f>(A33-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>11664</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5512</v>
       </c>
       <c r="B34">
-        <f>(A34-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>10816</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5512</v>
       </c>
       <c r="B35">
-        <f>(A35-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>10816</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5513</v>
       </c>
       <c r="B36">
-        <f>(A36-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>10609</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5516</v>
       </c>
       <c r="B37">
-        <f>(A37-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5518</v>
       </c>
       <c r="B38">
-        <f>(A38-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9604</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5519</v>
       </c>
       <c r="B39">
-        <f>(A39-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9409</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5520</v>
       </c>
       <c r="B40">
-        <f>(A40-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9216</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5520</v>
       </c>
       <c r="B41">
-        <f>(A41-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9216</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5520</v>
       </c>
       <c r="B42">
-        <f>(A42-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9216</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5520</v>
       </c>
       <c r="B43">
-        <f>(A43-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>9216</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5522</v>
       </c>
       <c r="B44">
-        <f>(A44-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>8836</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5525</v>
       </c>
       <c r="B45">
-        <f>(A45-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>8281</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5526</v>
       </c>
       <c r="B46">
-        <f>(A46-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>8100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5531</v>
       </c>
       <c r="B47">
-        <f>(A47-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>7225</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5531</v>
       </c>
       <c r="B48">
-        <f>(A48-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>7225</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5534</v>
       </c>
       <c r="B49">
-        <f>(A49-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>6724</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5536</v>
       </c>
       <c r="B50">
-        <f>(A50-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>6400</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5539</v>
       </c>
       <c r="B51">
-        <f>(A51-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5929</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5540</v>
       </c>
       <c r="B52">
-        <f>(A52-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5776</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5540</v>
       </c>
       <c r="B53">
-        <f>(A53-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5776</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5542</v>
       </c>
       <c r="B54">
-        <f>(A54-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5476</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5543</v>
       </c>
       <c r="B55">
-        <f>(A55-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5329</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5544</v>
       </c>
       <c r="B56">
-        <f>(A56-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>5184</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5546</v>
       </c>
       <c r="B57">
-        <f>(A57-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5546</v>
       </c>
       <c r="B58">
-        <f>(A58-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5548</v>
       </c>
       <c r="B59">
-        <f>(A59-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4624</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5548</v>
       </c>
       <c r="B60">
-        <f>(A60-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4624</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5548</v>
       </c>
       <c r="B61">
-        <f>(A61-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4624</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5549</v>
       </c>
       <c r="B62">
-        <f>(A62-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4489</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5550</v>
       </c>
       <c r="B63">
-        <f>(A63-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4356</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5551</v>
       </c>
       <c r="B64">
-        <f>(A64-$B$271)^2</f>
+        <f t="shared" si="0"/>
         <v>4225</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>5553</v>
       </c>
       <c r="B65">
-        <f>(A65-$B$271)^2</f>
+        <f t="shared" ref="B65:B128" si="5">(A65-$B$271)^2</f>
         <v>3969</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5554</v>
       </c>
       <c r="B66">
-        <f>(A66-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>3844</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>5554</v>
       </c>
       <c r="B67">
-        <f>(A67-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>3844</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>5558</v>
       </c>
       <c r="B68">
-        <f>(A68-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>3364</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5560</v>
       </c>
       <c r="B69">
-        <f>(A69-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>3136</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5561</v>
       </c>
       <c r="B70">
-        <f>(A70-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>3025</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5562</v>
       </c>
       <c r="B71">
-        <f>(A71-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2916</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5563</v>
       </c>
       <c r="B72">
-        <f>(A72-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2809</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5563</v>
       </c>
       <c r="B73">
-        <f>(A73-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2809</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5563</v>
       </c>
       <c r="B74">
-        <f>(A74-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2809</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5564</v>
       </c>
       <c r="B75">
-        <f>(A75-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2704</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5565</v>
       </c>
       <c r="B76">
-        <f>(A76-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2601</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5565</v>
       </c>
       <c r="B77">
-        <f>(A77-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2601</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5565</v>
       </c>
       <c r="B78">
-        <f>(A78-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2601</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5566</v>
       </c>
       <c r="B79">
-        <f>(A79-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5566</v>
       </c>
       <c r="B80">
-        <f>(A80-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5566</v>
       </c>
       <c r="B81">
-        <f>(A81-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5567</v>
       </c>
       <c r="B82">
-        <f>(A82-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2401</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5567</v>
       </c>
       <c r="B83">
-        <f>(A83-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2401</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5567</v>
       </c>
       <c r="B84">
-        <f>(A84-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2401</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5568</v>
       </c>
       <c r="B85">
-        <f>(A85-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2304</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5568</v>
       </c>
       <c r="B86">
-        <f>(A86-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2304</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5568</v>
       </c>
       <c r="B87">
-        <f>(A87-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2304</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5570</v>
       </c>
       <c r="B88">
-        <f>(A88-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2116</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5571</v>
       </c>
       <c r="B89">
-        <f>(A89-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2025</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5571</v>
       </c>
       <c r="B90">
-        <f>(A90-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2025</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5571</v>
       </c>
       <c r="B91">
-        <f>(A91-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>2025</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5572</v>
       </c>
       <c r="B92">
-        <f>(A92-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1936</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5572</v>
       </c>
       <c r="B93">
-        <f>(A93-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1936</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5572</v>
       </c>
       <c r="B94">
-        <f>(A94-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1936</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5572</v>
       </c>
       <c r="B95">
-        <f>(A95-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1936</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5572</v>
       </c>
       <c r="B96">
-        <f>(A96-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1936</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5573</v>
       </c>
       <c r="B97">
-        <f>(A97-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1849</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5574</v>
       </c>
       <c r="B98">
-        <f>(A98-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1764</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>5574</v>
       </c>
       <c r="B99">
-        <f>(A99-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1764</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5575</v>
       </c>
       <c r="B100">
-        <f>(A100-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1681</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>5576</v>
       </c>
       <c r="B101">
-        <f>(A101-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5576</v>
       </c>
       <c r="B102">
-        <f>(A102-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>5576</v>
       </c>
       <c r="B103">
-        <f>(A103-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>5576</v>
       </c>
       <c r="B104">
-        <f>(A104-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5578</v>
       </c>
       <c r="B105">
-        <f>(A105-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1444</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5579</v>
       </c>
       <c r="B106">
-        <f>(A106-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1369</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5580</v>
       </c>
       <c r="B107">
-        <f>(A107-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1296</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5580</v>
       </c>
       <c r="B108">
-        <f>(A108-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1296</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5581</v>
       </c>
       <c r="B109">
-        <f>(A109-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1225</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5581</v>
       </c>
       <c r="B110">
-        <f>(A110-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1225</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5581</v>
       </c>
       <c r="B111">
-        <f>(A111-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1225</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5581</v>
       </c>
       <c r="B112">
-        <f>(A112-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1225</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5582</v>
       </c>
       <c r="B113">
-        <f>(A113-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1156</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5582</v>
       </c>
       <c r="B114">
-        <f>(A114-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1156</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5582</v>
       </c>
       <c r="B115">
-        <f>(A115-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1156</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5583</v>
       </c>
       <c r="B116">
-        <f>(A116-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1089</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5583</v>
       </c>
       <c r="B117">
-        <f>(A117-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>1089</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5585</v>
       </c>
       <c r="B118">
-        <f>(A118-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>961</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5586</v>
       </c>
       <c r="B119">
-        <f>(A119-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5587</v>
       </c>
       <c r="B120">
-        <f>(A120-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>841</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5587</v>
       </c>
       <c r="B121">
-        <f>(A121-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>841</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5588</v>
       </c>
       <c r="B122">
-        <f>(A122-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>784</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5588</v>
       </c>
       <c r="B123">
-        <f>(A123-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>784</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5589</v>
       </c>
       <c r="B124">
-        <f>(A124-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>729</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5590</v>
       </c>
       <c r="B125">
-        <f>(A125-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>676</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5590</v>
       </c>
       <c r="B126">
-        <f>(A126-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>676</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5590</v>
       </c>
       <c r="B127">
-        <f>(A127-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>676</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5590</v>
       </c>
       <c r="B128">
-        <f>(A128-$B$271)^2</f>
+        <f t="shared" si="5"/>
         <v>676</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>5591</v>
       </c>
       <c r="B129">
-        <f>(A129-$B$271)^2</f>
+        <f t="shared" ref="B129:B192" si="6">(A129-$B$271)^2</f>
         <v>625</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>5592</v>
       </c>
       <c r="B130">
-        <f>(A130-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>576</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>5592</v>
       </c>
       <c r="B131">
-        <f>(A131-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>576</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>5593</v>
       </c>
       <c r="B132">
-        <f>(A132-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>529</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>5593</v>
       </c>
       <c r="B133">
-        <f>(A133-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>529</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>5593</v>
       </c>
       <c r="B134">
-        <f>(A134-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>529</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>5595</v>
       </c>
       <c r="B135">
-        <f>(A135-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>5595</v>
       </c>
       <c r="B136">
-        <f>(A136-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>5596</v>
       </c>
       <c r="B137">
-        <f>(A137-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>5598</v>
       </c>
       <c r="B138">
-        <f>(A138-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>5598</v>
       </c>
       <c r="B139">
-        <f>(A139-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>5599</v>
       </c>
       <c r="B140">
-        <f>(A140-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>5599</v>
       </c>
       <c r="B141">
-        <f>(A141-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>5599</v>
       </c>
       <c r="B142">
-        <f>(A142-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>5600</v>
       </c>
       <c r="B143">
-        <f>(A143-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>5601</v>
       </c>
       <c r="B144">
-        <f>(A144-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>5602</v>
       </c>
       <c r="B145">
-        <f>(A145-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>5602</v>
       </c>
       <c r="B146">
-        <f>(A146-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>5603</v>
       </c>
       <c r="B147">
-        <f>(A147-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>5603</v>
       </c>
       <c r="B148">
-        <f>(A148-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>5604</v>
       </c>
       <c r="B149">
-        <f>(A149-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5605</v>
       </c>
       <c r="B150">
-        <f>(A150-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>5606</v>
       </c>
       <c r="B151">
-        <f>(A151-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>5607</v>
       </c>
       <c r="B152">
-        <f>(A152-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>5607</v>
       </c>
       <c r="B153">
-        <f>(A153-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>5610</v>
       </c>
       <c r="B154">
-        <f>(A154-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>5610</v>
       </c>
       <c r="B155">
-        <f>(A155-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>5613</v>
       </c>
       <c r="B156">
-        <f>(A156-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>5614</v>
       </c>
       <c r="B157">
-        <f>(A157-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>5617</v>
       </c>
       <c r="B158">
-        <f>(A158-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>5617</v>
       </c>
       <c r="B159">
-        <f>(A159-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>5619</v>
       </c>
       <c r="B160">
-        <f>(A160-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>5619</v>
       </c>
       <c r="B161">
-        <f>(A161-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>5619</v>
       </c>
       <c r="B162">
-        <f>(A162-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>5621</v>
       </c>
       <c r="B163">
-        <f>(A163-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>5622</v>
       </c>
       <c r="B164">
-        <f>(A164-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>5623</v>
       </c>
       <c r="B165">
-        <f>(A165-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>5624</v>
       </c>
       <c r="B166">
-        <f>(A166-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>5624</v>
       </c>
       <c r="B167">
-        <f>(A167-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>5625</v>
       </c>
       <c r="B168">
-        <f>(A168-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>5626</v>
       </c>
       <c r="B169">
-        <f>(A169-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>5627</v>
       </c>
       <c r="B170">
-        <f>(A170-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>5627</v>
       </c>
       <c r="B171">
-        <f>(A171-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>5627</v>
       </c>
       <c r="B172">
-        <f>(A172-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>5627</v>
       </c>
       <c r="B173">
-        <f>(A173-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>5628</v>
       </c>
       <c r="B174">
-        <f>(A174-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>5629</v>
       </c>
       <c r="B175">
-        <f>(A175-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>5633</v>
       </c>
       <c r="B176">
-        <f>(A176-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>5634</v>
       </c>
       <c r="B177">
-        <f>(A177-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>5635</v>
       </c>
       <c r="B178">
-        <f>(A178-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>361</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>5636</v>
       </c>
       <c r="B179">
-        <f>(A179-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>5638</v>
       </c>
       <c r="B180">
-        <f>(A180-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>484</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>5639</v>
       </c>
       <c r="B181">
-        <f>(A181-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>529</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>5640</v>
       </c>
       <c r="B182">
-        <f>(A182-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>576</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>5640</v>
       </c>
       <c r="B183">
-        <f>(A183-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>576</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>5640</v>
       </c>
       <c r="B184">
-        <f>(A184-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>576</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>5641</v>
       </c>
       <c r="B185">
-        <f>(A185-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>625</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>5641</v>
       </c>
       <c r="B186">
-        <f>(A186-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>625</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>5641</v>
       </c>
       <c r="B187">
-        <f>(A187-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>625</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>5643</v>
       </c>
       <c r="B188">
-        <f>(A188-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>729</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>5644</v>
       </c>
       <c r="B189">
-        <f>(A189-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>784</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>5646</v>
       </c>
       <c r="B190">
-        <f>(A190-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>5647</v>
       </c>
       <c r="B191">
-        <f>(A191-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>961</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>5647</v>
       </c>
       <c r="B192">
-        <f>(A192-$B$271)^2</f>
+        <f t="shared" si="6"/>
         <v>961</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>5648</v>
       </c>
       <c r="B193">
-        <f>(A193-$B$271)^2</f>
+        <f t="shared" ref="B193:B256" si="7">(A193-$B$271)^2</f>
         <v>1024</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>5648</v>
       </c>
       <c r="B194">
-        <f>(A194-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>5652</v>
       </c>
       <c r="B195">
-        <f>(A195-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1296</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>5653</v>
       </c>
       <c r="B196">
-        <f>(A196-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1369</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>5653</v>
       </c>
       <c r="B197">
-        <f>(A197-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1369</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>5654</v>
       </c>
       <c r="B198">
-        <f>(A198-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1444</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>5654</v>
       </c>
       <c r="B199">
-        <f>(A199-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1444</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>5655</v>
       </c>
       <c r="B200">
-        <f>(A200-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1521</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>5656</v>
       </c>
       <c r="B201">
-        <f>(A201-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>5657</v>
       </c>
       <c r="B202">
-        <f>(A202-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>1681</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>5661</v>
       </c>
       <c r="B203">
-        <f>(A203-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>2025</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>5663</v>
       </c>
       <c r="B204">
-        <f>(A204-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>2209</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>5664</v>
       </c>
       <c r="B205">
-        <f>(A205-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>2304</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>5668</v>
       </c>
       <c r="B206">
-        <f>(A206-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>2704</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>5670</v>
       </c>
       <c r="B207">
-        <f>(A207-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>2916</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>5671</v>
       </c>
       <c r="B208">
-        <f>(A208-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>3025</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>5674</v>
       </c>
       <c r="B209">
-        <f>(A209-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>3364</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>5676</v>
       </c>
       <c r="B210">
-        <f>(A210-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>3600</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>5676</v>
       </c>
       <c r="B211">
-        <f>(A211-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>3600</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>5682</v>
       </c>
       <c r="B212">
-        <f>(A212-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>4356</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>5683</v>
       </c>
       <c r="B213">
-        <f>(A213-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>4489</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>5687</v>
       </c>
       <c r="B214">
-        <f>(A214-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>5041</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>5689</v>
       </c>
       <c r="B215">
-        <f>(A215-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>5329</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>5691</v>
       </c>
       <c r="B216">
-        <f>(A216-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>5625</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>5692</v>
       </c>
       <c r="B217">
-        <f>(A217-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>5776</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>5693</v>
       </c>
       <c r="B218">
-        <f>(A218-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>5929</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>5695</v>
       </c>
       <c r="B219">
-        <f>(A219-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>6241</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>5695</v>
       </c>
       <c r="B220">
-        <f>(A220-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>6241</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>5699</v>
       </c>
       <c r="B221">
-        <f>(A221-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>6889</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>5700</v>
       </c>
       <c r="B222">
-        <f>(A222-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>7056</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>5702</v>
       </c>
       <c r="B223">
-        <f>(A223-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>7396</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>5715</v>
       </c>
       <c r="B224">
-        <f>(A224-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>9801</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>5716</v>
       </c>
       <c r="B225">
-        <f>(A225-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>5716</v>
       </c>
       <c r="B226">
-        <f>(A226-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>5718</v>
       </c>
       <c r="B227">
-        <f>(A227-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>10404</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>5719</v>
       </c>
       <c r="B228">
-        <f>(A228-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>10609</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>5725</v>
       </c>
       <c r="B229">
-        <f>(A229-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>11881</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>5725</v>
       </c>
       <c r="B230">
-        <f>(A230-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>11881</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>5729</v>
       </c>
       <c r="B231">
-        <f>(A231-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>12769</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>5731</v>
       </c>
       <c r="B232">
-        <f>(A232-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>13225</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>5732</v>
       </c>
       <c r="B233">
-        <f>(A233-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>13456</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>5735</v>
       </c>
       <c r="B234">
-        <f>(A234-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>14161</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>5738</v>
       </c>
       <c r="B235">
-        <f>(A235-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>14884</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>5739</v>
       </c>
       <c r="B236">
-        <f>(A236-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>15129</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>5740</v>
       </c>
       <c r="B237">
-        <f>(A237-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>15376</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>5741</v>
       </c>
       <c r="B238">
-        <f>(A238-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>15625</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>5743</v>
       </c>
       <c r="B239">
-        <f>(A239-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>16129</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>5748</v>
       </c>
       <c r="B240">
-        <f>(A240-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>17424</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>5750</v>
       </c>
       <c r="B241">
-        <f>(A241-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>17956</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>5758</v>
       </c>
       <c r="B242">
-        <f>(A242-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>20164</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>5761</v>
       </c>
       <c r="B243">
-        <f>(A243-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>21025</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>5762</v>
       </c>
       <c r="B244">
-        <f>(A244-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>21316</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>5764</v>
       </c>
       <c r="B245">
-        <f>(A245-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>21904</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>5778</v>
       </c>
       <c r="B246">
-        <f>(A246-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>26244</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>5785</v>
       </c>
       <c r="B247">
-        <f>(A247-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>28561</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>5789</v>
       </c>
       <c r="B248">
-        <f>(A248-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>29929</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>5796</v>
       </c>
       <c r="B249">
-        <f>(A249-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>32400</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>5801</v>
       </c>
       <c r="B250">
-        <f>(A250-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>34225</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>5803</v>
       </c>
       <c r="B251">
-        <f>(A251-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>34969</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>5804</v>
       </c>
       <c r="B252">
-        <f>(A252-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>35344</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>5804</v>
       </c>
       <c r="B253">
-        <f>(A253-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>35344</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>5805</v>
       </c>
       <c r="B254">
-        <f>(A254-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>35721</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>5810</v>
       </c>
       <c r="B255">
-        <f>(A255-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>37636</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>5816</v>
       </c>
       <c r="B256">
-        <f>(A256-$B$271)^2</f>
+        <f t="shared" si="7"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>5820</v>
       </c>
       <c r="B257">
-        <f>(A257-$B$271)^2</f>
+        <f t="shared" ref="B257:B320" si="8">(A257-$B$271)^2</f>
         <v>41616</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>5821</v>
       </c>
       <c r="B258">
-        <f>(A258-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>42025</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>5824</v>
       </c>
       <c r="B259">
-        <f>(A259-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>43264</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>5829</v>
       </c>
       <c r="B260">
-        <f>(A260-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>45369</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>5843</v>
       </c>
       <c r="B261">
-        <f>(A261-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>51529</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>5849</v>
       </c>
       <c r="B262">
-        <f>(A262-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>54289</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>5854</v>
       </c>
       <c r="B263">
-        <f>(A263-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>56644</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>5860</v>
       </c>
       <c r="B264">
-        <f>(A264-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>59536</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>5874</v>
       </c>
       <c r="B265">
-        <f>(A265-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>66564</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>5887</v>
       </c>
       <c r="B266">
-        <f>(A266-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>73441</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>5888</v>
       </c>
       <c r="B267">
-        <f>(A267-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>73984</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>5894</v>
       </c>
       <c r="B268">
-        <f>(A268-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>77284</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>5901</v>
       </c>
       <c r="B269">
-        <f>(A269-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>81225</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>5912</v>
       </c>
       <c r="B270">
-        <f>(A270-$B$271)^2</f>
+        <f t="shared" si="8"/>
         <v>87616</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -4132,7 +4139,7 @@
         <v>2745842</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B272">
         <f>ROUND(SQRT((1/270)*D271),0)</f>
         <v>101</v>
